--- a/data/trans_orig/P57B3_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P57B3_2023-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AC833E9A-1253-4195-BB86-895FD0D3D34C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{13ECBC6D-6E4D-4A82-95EB-17ABEAB64816}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D98F7E9E-DAB0-4667-B1A1-0D520AEA860D}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{65A5235D-2FDF-4FBC-93B3-419BB31A77CB}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="331">
   <si>
     <t>Población según se ha sentido solo/a en 2023 (Tasa respuesta: 99,84%)</t>
   </si>
@@ -92,7 +92,10 @@
     <t>1,31%</t>
   </si>
   <si>
-    <t>3,11%</t>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
   </si>
   <si>
     <t>1,66%</t>
@@ -101,16 +104,16 @@
     <t>0,83%</t>
   </si>
   <si>
-    <t>3,08%</t>
+    <t>3,09%</t>
   </si>
   <si>
     <t>1,49%</t>
   </si>
   <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
   </si>
   <si>
     <t>En algún momento</t>
@@ -119,28 +122,28 @@
     <t>34,79%</t>
   </si>
   <si>
-    <t>28,94%</t>
-  </si>
-  <si>
-    <t>41,13%</t>
+    <t>29,2%</t>
+  </si>
+  <si>
+    <t>41,42%</t>
   </si>
   <si>
     <t>33,87%</t>
   </si>
   <si>
-    <t>29,61%</t>
-  </si>
-  <si>
-    <t>38,31%</t>
+    <t>29,44%</t>
+  </si>
+  <si>
+    <t>38,88%</t>
   </si>
   <si>
     <t>34,32%</t>
   </si>
   <si>
-    <t>30,88%</t>
-  </si>
-  <si>
-    <t>38,15%</t>
+    <t>30,73%</t>
+  </si>
+  <si>
+    <t>37,88%</t>
   </si>
   <si>
     <t>En ningún momento o en casi ningún momento</t>
@@ -149,25 +152,25 @@
     <t>63,9%</t>
   </si>
   <si>
-    <t>57,69%</t>
-  </si>
-  <si>
-    <t>69,62%</t>
+    <t>57,41%</t>
+  </si>
+  <si>
+    <t>69,5%</t>
   </si>
   <si>
     <t>64,47%</t>
   </si>
   <si>
-    <t>60,07%</t>
-  </si>
-  <si>
-    <t>68,9%</t>
+    <t>59,46%</t>
+  </si>
+  <si>
+    <t>68,67%</t>
   </si>
   <si>
     <t>64,19%</t>
   </si>
   <si>
-    <t>60,49%</t>
+    <t>60,4%</t>
   </si>
   <si>
     <t>67,72%</t>
@@ -185,796 +188,808 @@
     <t>0,74%</t>
   </si>
   <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>36,56%</t>
+  </si>
+  <si>
+    <t>31,28%</t>
+  </si>
+  <si>
+    <t>42,85%</t>
+  </si>
+  <si>
+    <t>34,76%</t>
+  </si>
+  <si>
+    <t>38,91%</t>
+  </si>
+  <si>
+    <t>35,63%</t>
+  </si>
+  <si>
+    <t>32,32%</t>
+  </si>
+  <si>
+    <t>39,24%</t>
+  </si>
+  <si>
+    <t>55,53%</t>
+  </si>
+  <si>
+    <t>49,56%</t>
+  </si>
+  <si>
+    <t>61,13%</t>
+  </si>
+  <si>
+    <t>55,18%</t>
+  </si>
+  <si>
+    <t>51,0%</t>
+  </si>
+  <si>
+    <t>59,25%</t>
+  </si>
+  <si>
+    <t>55,35%</t>
+  </si>
+  <si>
+    <t>51,89%</t>
+  </si>
+  <si>
+    <t>58,75%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>18,07%</t>
+  </si>
+  <si>
+    <t>18,16%</t>
+  </si>
+  <si>
+    <t>14,92%</t>
+  </si>
+  <si>
+    <t>22,14%</t>
+  </si>
+  <si>
+    <t>16,28%</t>
+  </si>
+  <si>
+    <t>13,89%</t>
+  </si>
+  <si>
+    <t>18,84%</t>
+  </si>
+  <si>
+    <t>75,05%</t>
+  </si>
+  <si>
+    <t>70,06%</t>
+  </si>
+  <si>
+    <t>79,44%</t>
+  </si>
+  <si>
+    <t>68,19%</t>
+  </si>
+  <si>
+    <t>63,89%</t>
+  </si>
+  <si>
+    <t>72,31%</t>
+  </si>
+  <si>
+    <t>71,37%</t>
+  </si>
+  <si>
+    <t>68,15%</t>
+  </si>
+  <si>
+    <t>74,27%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
     <t>3,55%</t>
   </si>
   <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>36,56%</t>
-  </si>
-  <si>
-    <t>31,6%</t>
-  </si>
-  <si>
-    <t>42,28%</t>
-  </si>
-  <si>
-    <t>34,76%</t>
-  </si>
-  <si>
-    <t>31,03%</t>
-  </si>
-  <si>
-    <t>38,7%</t>
-  </si>
-  <si>
-    <t>35,63%</t>
-  </si>
-  <si>
-    <t>32,26%</t>
-  </si>
-  <si>
-    <t>38,81%</t>
-  </si>
-  <si>
-    <t>55,53%</t>
-  </si>
-  <si>
-    <t>49,8%</t>
-  </si>
-  <si>
-    <t>60,48%</t>
-  </si>
-  <si>
-    <t>55,18%</t>
-  </si>
-  <si>
-    <t>50,99%</t>
-  </si>
-  <si>
-    <t>58,92%</t>
-  </si>
-  <si>
-    <t>55,35%</t>
-  </si>
-  <si>
-    <t>52,04%</t>
-  </si>
-  <si>
-    <t>58,56%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>18,26%</t>
+  </si>
+  <si>
+    <t>13,94%</t>
+  </si>
+  <si>
+    <t>24,54%</t>
+  </si>
+  <si>
+    <t>18,91%</t>
+  </si>
+  <si>
+    <t>15,38%</t>
+  </si>
+  <si>
+    <t>22,41%</t>
+  </si>
+  <si>
+    <t>18,63%</t>
+  </si>
+  <si>
+    <t>15,72%</t>
+  </si>
+  <si>
+    <t>21,81%</t>
+  </si>
+  <si>
+    <t>76,06%</t>
+  </si>
+  <si>
+    <t>69,7%</t>
+  </si>
+  <si>
+    <t>81,08%</t>
+  </si>
+  <si>
+    <t>73,09%</t>
+  </si>
+  <si>
+    <t>68,96%</t>
+  </si>
+  <si>
+    <t>77,63%</t>
+  </si>
+  <si>
+    <t>74,37%</t>
+  </si>
+  <si>
+    <t>71,02%</t>
+  </si>
+  <si>
+    <t>77,88%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>13,23%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>47,39%</t>
+  </si>
+  <si>
+    <t>40,36%</t>
+  </si>
+  <si>
+    <t>53,53%</t>
+  </si>
+  <si>
+    <t>51,2%</t>
+  </si>
+  <si>
+    <t>46,22%</t>
+  </si>
+  <si>
+    <t>56,4%</t>
+  </si>
+  <si>
+    <t>49,45%</t>
+  </si>
+  <si>
+    <t>45,28%</t>
+  </si>
+  <si>
+    <t>53,33%</t>
+  </si>
+  <si>
+    <t>38,2%</t>
+  </si>
+  <si>
+    <t>32,06%</t>
+  </si>
+  <si>
+    <t>44,75%</t>
+  </si>
+  <si>
+    <t>37,59%</t>
+  </si>
+  <si>
+    <t>32,91%</t>
+  </si>
+  <si>
+    <t>42,34%</t>
+  </si>
+  <si>
+    <t>37,87%</t>
+  </si>
+  <si>
+    <t>34,13%</t>
+  </si>
+  <si>
+    <t>42,01%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
   </si>
   <si>
     <t>7,05%</t>
   </si>
   <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>18,14%</t>
-  </si>
-  <si>
-    <t>18,16%</t>
-  </si>
-  <si>
-    <t>15,02%</t>
-  </si>
-  <si>
-    <t>21,95%</t>
-  </si>
-  <si>
-    <t>16,28%</t>
-  </si>
-  <si>
-    <t>13,99%</t>
-  </si>
-  <si>
-    <t>18,77%</t>
-  </si>
-  <si>
-    <t>75,05%</t>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>11,61%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>10,55%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>16,25%</t>
+  </si>
+  <si>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>14,8%</t>
+  </si>
+  <si>
+    <t>72,3%</t>
+  </si>
+  <si>
+    <t>67,0%</t>
+  </si>
+  <si>
+    <t>76,59%</t>
+  </si>
+  <si>
+    <t>74,39%</t>
+  </si>
+  <si>
+    <t>70,41%</t>
+  </si>
+  <si>
+    <t>78,0%</t>
+  </si>
+  <si>
+    <t>73,34%</t>
   </si>
   <si>
     <t>70,28%</t>
   </si>
   <si>
-    <t>79,79%</t>
-  </si>
-  <si>
-    <t>68,19%</t>
-  </si>
-  <si>
-    <t>63,89%</t>
-  </si>
-  <si>
-    <t>72,32%</t>
-  </si>
-  <si>
-    <t>71,37%</t>
-  </si>
-  <si>
-    <t>68,01%</t>
-  </si>
-  <si>
-    <t>74,04%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>18,26%</t>
-  </si>
-  <si>
-    <t>13,9%</t>
-  </si>
-  <si>
-    <t>23,81%</t>
-  </si>
-  <si>
-    <t>18,91%</t>
-  </si>
-  <si>
-    <t>15,34%</t>
-  </si>
-  <si>
-    <t>22,51%</t>
-  </si>
-  <si>
-    <t>18,63%</t>
-  </si>
-  <si>
-    <t>15,79%</t>
-  </si>
-  <si>
-    <t>21,69%</t>
-  </si>
-  <si>
-    <t>76,06%</t>
-  </si>
-  <si>
-    <t>70,1%</t>
-  </si>
-  <si>
-    <t>81,31%</t>
-  </si>
-  <si>
-    <t>73,09%</t>
-  </si>
-  <si>
-    <t>68,98%</t>
-  </si>
-  <si>
-    <t>77,65%</t>
-  </si>
-  <si>
-    <t>74,37%</t>
-  </si>
-  <si>
-    <t>70,72%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
+    <t>76,19%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
   </si>
   <si>
     <t>6,19%</t>
   </si>
   <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>13,04%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>47,39%</t>
-  </si>
-  <si>
-    <t>40,9%</t>
-  </si>
-  <si>
-    <t>53,83%</t>
-  </si>
-  <si>
-    <t>51,2%</t>
-  </si>
-  <si>
-    <t>46,49%</t>
-  </si>
-  <si>
-    <t>56,61%</t>
-  </si>
-  <si>
-    <t>49,45%</t>
-  </si>
-  <si>
-    <t>45,55%</t>
-  </si>
-  <si>
-    <t>53,39%</t>
-  </si>
-  <si>
-    <t>38,2%</t>
-  </si>
-  <si>
-    <t>31,91%</t>
-  </si>
-  <si>
-    <t>44,47%</t>
-  </si>
-  <si>
-    <t>37,59%</t>
-  </si>
-  <si>
-    <t>32,48%</t>
-  </si>
-  <si>
-    <t>42,46%</t>
-  </si>
-  <si>
-    <t>37,87%</t>
-  </si>
-  <si>
-    <t>33,99%</t>
-  </si>
-  <si>
-    <t>42,17%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>16,06%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>15,6%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>14,89%</t>
-  </si>
-  <si>
-    <t>72,3%</t>
-  </si>
-  <si>
-    <t>67,44%</t>
-  </si>
-  <si>
-    <t>76,57%</t>
-  </si>
-  <si>
-    <t>74,39%</t>
-  </si>
-  <si>
-    <t>69,61%</t>
-  </si>
-  <si>
-    <t>77,82%</t>
-  </si>
-  <si>
-    <t>73,34%</t>
-  </si>
-  <si>
-    <t>70,18%</t>
-  </si>
-  <si>
-    <t>76,41%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
     <t>27,6%</t>
   </si>
   <si>
-    <t>23,65%</t>
-  </si>
-  <si>
-    <t>31,99%</t>
+    <t>23,97%</t>
+  </si>
+  <si>
+    <t>32,15%</t>
   </si>
   <si>
     <t>27,08%</t>
   </si>
   <si>
-    <t>16,47%</t>
-  </si>
-  <si>
-    <t>32,35%</t>
+    <t>16,84%</t>
+  </si>
+  <si>
+    <t>32,69%</t>
   </si>
   <si>
     <t>27,31%</t>
   </si>
   <si>
+    <t>19,66%</t>
+  </si>
+  <si>
+    <t>30,74%</t>
+  </si>
+  <si>
+    <t>59,8%</t>
+  </si>
+  <si>
+    <t>68,3%</t>
+  </si>
+  <si>
+    <t>64,57%</t>
+  </si>
+  <si>
+    <t>57,62%</t>
+  </si>
+  <si>
+    <t>77,41%</t>
+  </si>
+  <si>
+    <t>64,4%</t>
+  </si>
+  <si>
+    <t>60,32%</t>
+  </si>
+  <si>
+    <t>75,15%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>32,07%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>20,31%</t>
+  </si>
+  <si>
+    <t>14,48%</t>
+  </si>
+  <si>
+    <t>11,25%</t>
+  </si>
+  <si>
+    <t>17,4%</t>
+  </si>
+  <si>
+    <t>17,8%</t>
+  </si>
+  <si>
+    <t>15,75%</t>
+  </si>
+  <si>
     <t>20,35%</t>
   </si>
   <si>
-    <t>30,83%</t>
-  </si>
-  <si>
-    <t>59,57%</t>
-  </si>
-  <si>
-    <t>68,48%</t>
-  </si>
-  <si>
-    <t>64,57%</t>
-  </si>
-  <si>
-    <t>57,87%</t>
-  </si>
-  <si>
-    <t>77,89%</t>
-  </si>
-  <si>
-    <t>64,4%</t>
-  </si>
-  <si>
-    <t>60,21%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>29,42%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>20,53%</t>
-  </si>
-  <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>17,22%</t>
-  </si>
-  <si>
-    <t>17,8%</t>
-  </si>
-  <si>
-    <t>15,59%</t>
-  </si>
-  <si>
-    <t>20,43%</t>
-  </si>
-  <si>
     <t>16,15%</t>
   </si>
   <si>
-    <t>14,16%</t>
-  </si>
-  <si>
-    <t>18,02%</t>
+    <t>14,2%</t>
+  </si>
+  <si>
+    <t>18,1%</t>
   </si>
   <si>
     <t>46,66%</t>
   </si>
   <si>
-    <t>37,83%</t>
-  </si>
-  <si>
-    <t>51,37%</t>
+    <t>37,49%</t>
+  </si>
+  <si>
+    <t>51,05%</t>
   </si>
   <si>
     <t>52,95%</t>
   </si>
   <si>
-    <t>49,66%</t>
-  </si>
-  <si>
-    <t>56,18%</t>
-  </si>
-  <si>
     <t>49,82%</t>
   </si>
   <si>
-    <t>44,86%</t>
+    <t>56,29%</t>
+  </si>
+  <si>
+    <t>44,79%</t>
+  </si>
+  <si>
+    <t>52,7%</t>
   </si>
   <si>
     <t>26,34%</t>
   </si>
   <si>
-    <t>20,17%</t>
-  </si>
-  <si>
-    <t>30,25%</t>
+    <t>21,26%</t>
+  </si>
+  <si>
+    <t>30,47%</t>
   </si>
   <si>
     <t>21,44%</t>
   </si>
   <si>
-    <t>18,78%</t>
-  </si>
-  <si>
-    <t>24,39%</t>
+    <t>18,68%</t>
+  </si>
+  <si>
+    <t>24,43%</t>
   </si>
   <si>
     <t>23,87%</t>
   </si>
   <si>
-    <t>21,18%</t>
-  </si>
-  <si>
-    <t>26,12%</t>
+    <t>21,08%</t>
+  </si>
+  <si>
+    <t>26,09%</t>
   </si>
   <si>
     <t>5,61%</t>
   </si>
   <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>12,02%</t>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>12,87%</t>
   </si>
   <si>
     <t>4,11%</t>
   </si>
   <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
     <t>4,82%</t>
   </si>
   <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
+    <t>4,01%</t>
   </si>
   <si>
     <t>7,75%</t>
   </si>
   <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
   </si>
   <si>
     <t>8,98%</t>
   </si>
   <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
+    <t>9,92%</t>
   </si>
   <si>
     <t>8,4%</t>
   </si>
   <si>
-    <t>9,11%</t>
+    <t>7,72%</t>
   </si>
   <si>
     <t>32,09%</t>
   </si>
   <si>
-    <t>30,08%</t>
-  </si>
-  <si>
-    <t>34,15%</t>
+    <t>29,99%</t>
+  </si>
+  <si>
+    <t>33,95%</t>
   </si>
   <si>
     <t>33,19%</t>
   </si>
   <si>
-    <t>30,11%</t>
-  </si>
-  <si>
-    <t>35,12%</t>
+    <t>30,0%</t>
+  </si>
+  <si>
+    <t>35,02%</t>
   </si>
   <si>
     <t>32,67%</t>
@@ -983,34 +998,34 @@
     <t>30,81%</t>
   </si>
   <si>
-    <t>34,01%</t>
+    <t>33,93%</t>
   </si>
   <si>
     <t>54,56%</t>
   </si>
   <si>
-    <t>51,3%</t>
-  </si>
-  <si>
-    <t>56,76%</t>
+    <t>51,64%</t>
+  </si>
+  <si>
+    <t>56,6%</t>
   </si>
   <si>
     <t>53,72%</t>
   </si>
   <si>
-    <t>51,51%</t>
-  </si>
-  <si>
-    <t>58,13%</t>
+    <t>51,55%</t>
+  </si>
+  <si>
+    <t>58,25%</t>
   </si>
   <si>
     <t>54,12%</t>
   </si>
   <si>
-    <t>52,37%</t>
-  </si>
-  <si>
-    <t>56,35%</t>
+    <t>52,46%</t>
+  </si>
+  <si>
+    <t>56,47%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1425,7 +1440,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4272AA4C-45A4-4C89-99AC-7E6C727B101B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62E6B891-D946-41F6-907E-5D27C2C38559}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1603,10 +1618,10 @@
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H5" s="7">
         <v>10</v>
@@ -1615,13 +1630,13 @@
         <v>4505</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M5" s="7">
         <v>15</v>
@@ -1630,19 +1645,19 @@
         <v>7905</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" s="7">
         <v>113</v>
@@ -1651,13 +1666,13 @@
         <v>90563</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H6" s="7">
         <v>196</v>
@@ -1666,13 +1681,13 @@
         <v>91926</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M6" s="7">
         <v>309</v>
@@ -1681,19 +1696,19 @@
         <v>182489</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C7" s="7">
         <v>213</v>
@@ -1702,13 +1717,13 @@
         <v>166335</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H7" s="7">
         <v>332</v>
@@ -1717,13 +1732,13 @@
         <v>174972</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M7" s="7">
         <v>545</v>
@@ -1732,13 +1747,13 @@
         <v>341307</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1753,13 +1768,13 @@
         <v>260298</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H8" s="7">
         <v>538</v>
@@ -1768,13 +1783,13 @@
         <v>271403</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
         <v>869</v>
@@ -1783,18 +1798,18 @@
         <v>531700</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
@@ -1806,13 +1821,13 @@
         <v>9259</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H9" s="7">
         <v>15</v>
@@ -1821,13 +1836,13 @@
         <v>12655</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M9" s="7">
         <v>22</v>
@@ -1836,13 +1851,13 @@
         <v>21914</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>55</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1857,13 +1872,13 @@
         <v>31734</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>58</v>
       </c>
       <c r="H10" s="7">
         <v>61</v>
@@ -1872,13 +1887,13 @@
         <v>43003</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>61</v>
       </c>
       <c r="M10" s="7">
         <v>87</v>
@@ -1887,19 +1902,19 @@
         <v>74738</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" s="7">
         <v>130</v>
@@ -1908,13 +1923,13 @@
         <v>189518</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>67</v>
       </c>
       <c r="H11" s="7">
         <v>248</v>
@@ -1923,13 +1938,13 @@
         <v>192248</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>70</v>
       </c>
       <c r="M11" s="7">
         <v>378</v>
@@ -1938,19 +1953,19 @@
         <v>381766</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C12" s="7">
         <v>218</v>
@@ -1959,13 +1974,13 @@
         <v>287825</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>76</v>
       </c>
       <c r="H12" s="7">
         <v>392</v>
@@ -1974,13 +1989,13 @@
         <v>305208</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>79</v>
       </c>
       <c r="M12" s="7">
         <v>610</v>
@@ -1989,13 +2004,13 @@
         <v>593034</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2010,13 +2025,13 @@
         <v>518336</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H13" s="7">
         <v>716</v>
@@ -2025,13 +2040,13 @@
         <v>553114</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M13" s="7">
         <v>1097</v>
@@ -2040,18 +2055,18 @@
         <v>1071451</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -2063,13 +2078,13 @@
         <v>14390</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="H14" s="7">
         <v>34</v>
@@ -2078,13 +2093,13 @@
         <v>18814</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>88</v>
       </c>
       <c r="M14" s="7">
         <v>53</v>
@@ -2093,13 +2108,13 @@
         <v>33203</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2114,13 +2129,13 @@
         <v>20612</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="G15" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="H15" s="7">
         <v>54</v>
@@ -2129,13 +2144,13 @@
         <v>32128</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="L15" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>97</v>
       </c>
       <c r="M15" s="7">
         <v>81</v>
@@ -2144,19 +2159,19 @@
         <v>52741</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q15" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C16" s="7">
         <v>56</v>
@@ -2165,13 +2180,13 @@
         <v>45408</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="H16" s="7">
         <v>102</v>
@@ -2180,13 +2195,13 @@
         <v>67800</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>106</v>
       </c>
       <c r="M16" s="7">
         <v>158</v>
@@ -2195,19 +2210,19 @@
         <v>113208</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C17" s="7">
         <v>258</v>
@@ -2216,13 +2231,13 @@
         <v>241831</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="H17" s="7">
         <v>346</v>
@@ -2231,13 +2246,13 @@
         <v>254542</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>115</v>
       </c>
       <c r="M17" s="7">
         <v>604</v>
@@ -2246,13 +2261,13 @@
         <v>496372</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2267,13 +2282,13 @@
         <v>322240</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H18" s="7">
         <v>536</v>
@@ -2282,13 +2297,13 @@
         <v>373284</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M18" s="7">
         <v>896</v>
@@ -2297,18 +2312,18 @@
         <v>695524</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2320,13 +2335,13 @@
         <v>5825</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="H19" s="7">
         <v>17</v>
@@ -2335,13 +2350,13 @@
         <v>9721</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>125</v>
       </c>
       <c r="M19" s="7">
         <v>23</v>
@@ -2350,13 +2365,13 @@
         <v>15546</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2371,13 +2386,13 @@
         <v>12488</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="H20" s="7">
         <v>39</v>
@@ -2386,13 +2401,13 @@
         <v>24430</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>133</v>
       </c>
       <c r="M20" s="7">
         <v>50</v>
@@ -2401,19 +2416,19 @@
         <v>36919</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C21" s="7">
         <v>57</v>
@@ -2422,13 +2437,13 @@
         <v>58828</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="H21" s="7">
         <v>142</v>
@@ -2437,13 +2452,13 @@
         <v>80695</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>142</v>
       </c>
       <c r="M21" s="7">
         <v>199</v>
@@ -2452,19 +2467,19 @@
         <v>139523</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C22" s="7">
         <v>218</v>
@@ -2473,13 +2488,13 @@
         <v>245099</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="H22" s="7">
         <v>398</v>
@@ -2488,13 +2503,13 @@
         <v>311908</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>151</v>
       </c>
       <c r="M22" s="7">
         <v>616</v>
@@ -2503,13 +2518,13 @@
         <v>557007</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2524,13 +2539,13 @@
         <v>322240</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H23" s="7">
         <v>596</v>
@@ -2539,13 +2554,13 @@
         <v>426754</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M23" s="7">
         <v>888</v>
@@ -2554,13 +2569,13 @@
         <v>748994</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2583,7 +2598,7 @@
         <v>156</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>100</v>
+        <v>157</v>
       </c>
       <c r="H24" s="7">
         <v>18</v>
@@ -2592,13 +2607,13 @@
         <v>7556</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="M24" s="7">
         <v>32</v>
@@ -2607,13 +2622,13 @@
         <v>17734</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2628,13 +2643,13 @@
         <v>18168</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="H25" s="7">
         <v>43</v>
@@ -2643,13 +2658,13 @@
         <v>18415</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="M25" s="7">
         <v>71</v>
@@ -2658,19 +2673,19 @@
         <v>36583</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C26" s="7">
         <v>140</v>
@@ -2679,13 +2694,13 @@
         <v>93248</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="H26" s="7">
         <v>260</v>
@@ -2694,13 +2709,13 @@
         <v>118516</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="M26" s="7">
         <v>400</v>
@@ -2709,19 +2724,19 @@
         <v>211764</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C27" s="7">
         <v>97</v>
@@ -2730,13 +2745,13 @@
         <v>75153</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H27" s="7">
         <v>170</v>
@@ -2745,13 +2760,13 @@
         <v>87009</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="M27" s="7">
         <v>267</v>
@@ -2760,13 +2775,13 @@
         <v>162162</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2781,13 +2796,13 @@
         <v>196748</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H28" s="7">
         <v>491</v>
@@ -2796,13 +2811,13 @@
         <v>231496</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M28" s="7">
         <v>770</v>
@@ -2811,18 +2826,18 @@
         <v>428244</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -2834,13 +2849,13 @@
         <v>19546</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>88</v>
+        <v>192</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>134</v>
+        <v>193</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="H29" s="7">
         <v>32</v>
@@ -2849,13 +2864,13 @@
         <v>12014</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="M29" s="7">
         <v>67</v>
@@ -2864,13 +2879,13 @@
         <v>31560</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>136</v>
+        <v>200</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2885,13 +2900,13 @@
         <v>22999</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="H30" s="7">
         <v>58</v>
@@ -2900,13 +2915,13 @@
         <v>24966</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="M30" s="7">
         <v>94</v>
@@ -2915,19 +2930,19 @@
         <v>47964</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C31" s="7">
         <v>47</v>
@@ -2936,13 +2951,13 @@
         <v>34249</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="H31" s="7">
         <v>65</v>
@@ -2951,13 +2966,13 @@
         <v>33607</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="M31" s="7">
         <v>112</v>
@@ -2966,19 +2981,19 @@
         <v>67857</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C32" s="7">
         <v>253</v>
@@ -2987,13 +3002,13 @@
         <v>200429</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="H32" s="7">
         <v>305</v>
@@ -3002,13 +3017,13 @@
         <v>205035</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="M32" s="7">
         <v>558</v>
@@ -3017,13 +3032,13 @@
         <v>405464</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3038,13 +3053,13 @@
         <v>277223</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H33" s="7">
         <v>460</v>
@@ -3053,13 +3068,13 @@
         <v>275622</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M33" s="7">
         <v>831</v>
@@ -3068,18 +3083,18 @@
         <v>552845</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -3091,13 +3106,13 @@
         <v>23060</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="H34" s="7">
         <v>44</v>
@@ -3106,13 +3121,13 @@
         <v>27578</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>228</v>
+        <v>54</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="M34" s="7">
         <v>69</v>
@@ -3121,13 +3136,13 @@
         <v>50638</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3142,13 +3157,13 @@
         <v>28462</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="H35" s="7">
         <v>50</v>
@@ -3157,13 +3172,13 @@
         <v>39350</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>136</v>
+        <v>86</v>
       </c>
       <c r="M35" s="7">
         <v>81</v>
@@ -3172,19 +3187,19 @@
         <v>67812</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C36" s="7">
         <v>168</v>
@@ -3193,13 +3208,13 @@
         <v>173281</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="H36" s="7">
         <v>307</v>
@@ -3208,13 +3223,13 @@
         <v>217000</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="M36" s="7">
         <v>475</v>
@@ -3223,19 +3238,19 @@
         <v>390282</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C37" s="7">
         <v>375</v>
@@ -3244,13 +3259,13 @@
         <v>402951</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="H37" s="7">
         <v>555</v>
@@ -3259,13 +3274,13 @@
         <v>517452</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="M37" s="7">
         <v>930</v>
@@ -3274,13 +3289,13 @@
         <v>920404</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>149</v>
+        <v>260</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3295,13 +3310,13 @@
         <v>627754</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H38" s="7">
         <v>956</v>
@@ -3310,13 +3325,13 @@
         <v>801381</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M38" s="7">
         <v>1555</v>
@@ -3325,18 +3340,18 @@
         <v>1429136</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>10</v>
@@ -3348,13 +3363,13 @@
         <v>107457</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="H39" s="7">
         <v>93</v>
@@ -3363,13 +3378,13 @@
         <v>67901</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="M39" s="7">
         <v>154</v>
@@ -3378,13 +3393,13 @@
         <v>175357</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -3399,13 +3414,13 @@
         <v>124273</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="H40" s="7">
         <v>215</v>
@@ -3414,13 +3429,13 @@
         <v>154585</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="M40" s="7">
         <v>344</v>
@@ -3429,19 +3444,19 @@
         <v>278858</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
       <c r="B41" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C41" s="7">
         <v>384</v>
@@ -3450,13 +3465,13 @@
         <v>400449</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="H41" s="7">
         <v>542</v>
@@ -3465,13 +3480,13 @@
         <v>459795</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="M41" s="7">
         <v>926</v>
@@ -3480,19 +3495,19 @@
         <v>860245</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>278</v>
+        <v>287</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C42" s="7">
         <v>187</v>
@@ -3501,13 +3516,13 @@
         <v>226076</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="H42" s="7">
         <v>212</v>
@@ -3516,13 +3531,13 @@
         <v>186153</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="M42" s="7">
         <v>399</v>
@@ -3531,13 +3546,13 @@
         <v>412229</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3552,13 +3567,13 @@
         <v>858255</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H43" s="7">
         <v>1062</v>
@@ -3567,13 +3582,13 @@
         <v>868434</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M43" s="7">
         <v>1823</v>
@@ -3582,13 +3597,13 @@
         <v>1726690</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -3605,13 +3620,13 @@
         <v>189715</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="H44" s="7">
         <v>253</v>
@@ -3620,13 +3635,13 @@
         <v>156237</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>230</v>
+        <v>301</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>229</v>
+        <v>302</v>
       </c>
       <c r="M44" s="7">
         <v>420</v>
@@ -3635,13 +3650,13 @@
         <v>345952</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>298</v>
+        <v>135</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3656,13 +3671,13 @@
         <v>262137</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="H45" s="7">
         <v>530</v>
@@ -3671,13 +3686,13 @@
         <v>341382</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>303</v>
+        <v>167</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="M45" s="7">
         <v>823</v>
@@ -3686,19 +3701,19 @@
         <v>603519</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>299</v>
+        <v>311</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>306</v>
+        <v>211</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="1"/>
       <c r="B46" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C46" s="7">
         <v>1095</v>
@@ -3707,13 +3722,13 @@
         <v>1085544</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="H46" s="7">
         <v>1862</v>
@@ -3722,34 +3737,34 @@
         <v>1261589</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="M46" s="7">
         <v>2957</v>
       </c>
       <c r="N46" s="7">
-        <v>2347134</v>
+        <v>2347133</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
       <c r="B47" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C47" s="7">
         <v>1819</v>
@@ -3758,43 +3773,43 @@
         <v>1845698</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="H47" s="7">
         <v>2710</v>
       </c>
       <c r="I47" s="7">
-        <v>2042280</v>
+        <v>2042279</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="M47" s="7">
         <v>4529</v>
       </c>
       <c r="N47" s="7">
-        <v>3887979</v>
+        <v>3887978</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -3809,48 +3824,48 @@
         <v>3383094</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H48" s="7">
         <v>5355</v>
       </c>
       <c r="I48" s="7">
-        <v>3801489</v>
+        <v>3801488</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M48" s="7">
         <v>8729</v>
       </c>
       <c r="N48" s="7">
-        <v>7184584</v>
+        <v>7184583</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P57B3_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P57B3_2023-Provincia-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{13ECBC6D-6E4D-4A82-95EB-17ABEAB64816}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A05E6549-4EBE-4ADA-9837-127D11B9E169}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{65A5235D-2FDF-4FBC-93B3-419BB31A77CB}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{7FA90777-8A09-4EC8-B8C3-02030942DC30}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -1440,7 +1440,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62E6B891-D946-41F6-907E-5D27C2C38559}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA908DD8-72CD-476F-A8A1-FA739A0C268A}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P57B3_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P57B3_2023-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A05E6549-4EBE-4ADA-9837-127D11B9E169}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DABCFFF7-A682-44EB-B57D-2B9F2D91C0E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{7FA90777-8A09-4EC8-B8C3-02030942DC30}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C0024716-8664-431F-BA31-B531C870D050}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="326">
   <si>
     <t>Población según se ha sentido solo/a en 2023 (Tasa respuesta: 99,84%)</t>
   </si>
@@ -92,10 +92,7 @@
     <t>1,31%</t>
   </si>
   <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
+    <t>3,11%</t>
   </si>
   <si>
     <t>1,66%</t>
@@ -104,892 +101,880 @@
     <t>0,83%</t>
   </si>
   <si>
-    <t>3,09%</t>
+    <t>3,08%</t>
   </si>
   <si>
     <t>1,49%</t>
   </si>
   <si>
-    <t>0,88%</t>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>En algún momento</t>
+  </si>
+  <si>
+    <t>34,79%</t>
+  </si>
+  <si>
+    <t>28,94%</t>
+  </si>
+  <si>
+    <t>41,13%</t>
+  </si>
+  <si>
+    <t>33,87%</t>
+  </si>
+  <si>
+    <t>29,61%</t>
+  </si>
+  <si>
+    <t>38,31%</t>
+  </si>
+  <si>
+    <t>34,32%</t>
+  </si>
+  <si>
+    <t>30,88%</t>
+  </si>
+  <si>
+    <t>38,15%</t>
+  </si>
+  <si>
+    <t>En ningún momento o en casi ningún momento</t>
+  </si>
+  <si>
+    <t>63,9%</t>
+  </si>
+  <si>
+    <t>57,69%</t>
+  </si>
+  <si>
+    <t>69,62%</t>
+  </si>
+  <si>
+    <t>64,47%</t>
+  </si>
+  <si>
+    <t>60,07%</t>
+  </si>
+  <si>
+    <t>68,9%</t>
+  </si>
+  <si>
+    <t>64,19%</t>
+  </si>
+  <si>
+    <t>60,49%</t>
+  </si>
+  <si>
+    <t>67,72%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>36,56%</t>
+  </si>
+  <si>
+    <t>31,6%</t>
+  </si>
+  <si>
+    <t>42,28%</t>
+  </si>
+  <si>
+    <t>34,76%</t>
+  </si>
+  <si>
+    <t>31,03%</t>
+  </si>
+  <si>
+    <t>38,7%</t>
+  </si>
+  <si>
+    <t>35,63%</t>
+  </si>
+  <si>
+    <t>32,26%</t>
+  </si>
+  <si>
+    <t>38,81%</t>
+  </si>
+  <si>
+    <t>55,53%</t>
+  </si>
+  <si>
+    <t>49,8%</t>
+  </si>
+  <si>
+    <t>60,48%</t>
+  </si>
+  <si>
+    <t>55,18%</t>
+  </si>
+  <si>
+    <t>50,99%</t>
+  </si>
+  <si>
+    <t>58,92%</t>
+  </si>
+  <si>
+    <t>55,35%</t>
+  </si>
+  <si>
+    <t>52,04%</t>
+  </si>
+  <si>
+    <t>58,56%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>18,14%</t>
+  </si>
+  <si>
+    <t>18,16%</t>
+  </si>
+  <si>
+    <t>15,02%</t>
+  </si>
+  <si>
+    <t>21,95%</t>
+  </si>
+  <si>
+    <t>16,28%</t>
+  </si>
+  <si>
+    <t>13,99%</t>
+  </si>
+  <si>
+    <t>18,77%</t>
+  </si>
+  <si>
+    <t>75,05%</t>
+  </si>
+  <si>
+    <t>70,28%</t>
+  </si>
+  <si>
+    <t>79,79%</t>
+  </si>
+  <si>
+    <t>68,19%</t>
+  </si>
+  <si>
+    <t>63,89%</t>
+  </si>
+  <si>
+    <t>72,32%</t>
+  </si>
+  <si>
+    <t>71,37%</t>
+  </si>
+  <si>
+    <t>68,01%</t>
+  </si>
+  <si>
+    <t>74,04%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>18,26%</t>
+  </si>
+  <si>
+    <t>13,9%</t>
+  </si>
+  <si>
+    <t>23,81%</t>
+  </si>
+  <si>
+    <t>18,91%</t>
+  </si>
+  <si>
+    <t>15,34%</t>
+  </si>
+  <si>
+    <t>22,51%</t>
+  </si>
+  <si>
+    <t>18,63%</t>
+  </si>
+  <si>
+    <t>15,79%</t>
+  </si>
+  <si>
+    <t>21,69%</t>
+  </si>
+  <si>
+    <t>76,06%</t>
+  </si>
+  <si>
+    <t>70,1%</t>
+  </si>
+  <si>
+    <t>81,31%</t>
+  </si>
+  <si>
+    <t>73,09%</t>
+  </si>
+  <si>
+    <t>68,98%</t>
+  </si>
+  <si>
+    <t>77,65%</t>
+  </si>
+  <si>
+    <t>74,37%</t>
+  </si>
+  <si>
+    <t>70,72%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>47,39%</t>
+  </si>
+  <si>
+    <t>40,9%</t>
+  </si>
+  <si>
+    <t>53,83%</t>
+  </si>
+  <si>
+    <t>51,2%</t>
+  </si>
+  <si>
+    <t>46,49%</t>
+  </si>
+  <si>
+    <t>56,61%</t>
+  </si>
+  <si>
+    <t>49,45%</t>
+  </si>
+  <si>
+    <t>45,55%</t>
+  </si>
+  <si>
+    <t>53,39%</t>
+  </si>
+  <si>
+    <t>38,2%</t>
+  </si>
+  <si>
+    <t>31,91%</t>
+  </si>
+  <si>
+    <t>44,47%</t>
+  </si>
+  <si>
+    <t>37,59%</t>
+  </si>
+  <si>
+    <t>32,48%</t>
+  </si>
+  <si>
+    <t>42,46%</t>
+  </si>
+  <si>
+    <t>37,87%</t>
+  </si>
+  <si>
+    <t>33,99%</t>
+  </si>
+  <si>
+    <t>42,17%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>16,06%</t>
+  </si>
+  <si>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>15,6%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>14,89%</t>
+  </si>
+  <si>
+    <t>72,3%</t>
+  </si>
+  <si>
+    <t>67,44%</t>
+  </si>
+  <si>
+    <t>76,57%</t>
+  </si>
+  <si>
+    <t>74,39%</t>
+  </si>
+  <si>
+    <t>69,61%</t>
+  </si>
+  <si>
+    <t>77,82%</t>
+  </si>
+  <si>
+    <t>73,34%</t>
+  </si>
+  <si>
+    <t>70,18%</t>
+  </si>
+  <si>
+    <t>76,41%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
   </si>
   <si>
     <t>2,6%</t>
   </si>
   <si>
-    <t>En algún momento</t>
-  </si>
-  <si>
-    <t>34,79%</t>
-  </si>
-  <si>
-    <t>29,2%</t>
-  </si>
-  <si>
-    <t>41,42%</t>
-  </si>
-  <si>
-    <t>33,87%</t>
-  </si>
-  <si>
-    <t>29,44%</t>
-  </si>
-  <si>
-    <t>38,88%</t>
-  </si>
-  <si>
-    <t>34,32%</t>
-  </si>
-  <si>
-    <t>30,73%</t>
-  </si>
-  <si>
-    <t>37,88%</t>
-  </si>
-  <si>
-    <t>En ningún momento o en casi ningún momento</t>
-  </si>
-  <si>
-    <t>63,9%</t>
-  </si>
-  <si>
-    <t>57,41%</t>
-  </si>
-  <si>
-    <t>69,5%</t>
-  </si>
-  <si>
-    <t>64,47%</t>
-  </si>
-  <si>
-    <t>59,46%</t>
-  </si>
-  <si>
-    <t>68,67%</t>
-  </si>
-  <si>
-    <t>64,19%</t>
-  </si>
-  <si>
-    <t>60,4%</t>
-  </si>
-  <si>
-    <t>67,72%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>36,56%</t>
-  </si>
-  <si>
-    <t>31,28%</t>
-  </si>
-  <si>
-    <t>42,85%</t>
-  </si>
-  <si>
-    <t>34,76%</t>
-  </si>
-  <si>
-    <t>38,91%</t>
-  </si>
-  <si>
-    <t>35,63%</t>
-  </si>
-  <si>
-    <t>32,32%</t>
-  </si>
-  <si>
-    <t>39,24%</t>
-  </si>
-  <si>
-    <t>55,53%</t>
-  </si>
-  <si>
-    <t>49,56%</t>
-  </si>
-  <si>
-    <t>61,13%</t>
-  </si>
-  <si>
-    <t>55,18%</t>
-  </si>
-  <si>
-    <t>51,0%</t>
-  </si>
-  <si>
-    <t>59,25%</t>
-  </si>
-  <si>
-    <t>55,35%</t>
-  </si>
-  <si>
-    <t>51,89%</t>
-  </si>
-  <si>
-    <t>58,75%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>18,07%</t>
-  </si>
-  <si>
-    <t>18,16%</t>
-  </si>
-  <si>
-    <t>14,92%</t>
-  </si>
-  <si>
-    <t>22,14%</t>
-  </si>
-  <si>
-    <t>16,28%</t>
-  </si>
-  <si>
-    <t>13,89%</t>
-  </si>
-  <si>
-    <t>18,84%</t>
-  </si>
-  <si>
-    <t>75,05%</t>
-  </si>
-  <si>
-    <t>70,06%</t>
-  </si>
-  <si>
-    <t>79,44%</t>
-  </si>
-  <si>
-    <t>68,19%</t>
-  </si>
-  <si>
-    <t>63,89%</t>
-  </si>
-  <si>
-    <t>72,31%</t>
-  </si>
-  <si>
-    <t>71,37%</t>
-  </si>
-  <si>
-    <t>68,15%</t>
-  </si>
-  <si>
-    <t>74,27%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>18,26%</t>
-  </si>
-  <si>
-    <t>13,94%</t>
-  </si>
-  <si>
-    <t>24,54%</t>
-  </si>
-  <si>
-    <t>18,91%</t>
-  </si>
-  <si>
-    <t>15,38%</t>
-  </si>
-  <si>
-    <t>22,41%</t>
-  </si>
-  <si>
-    <t>18,63%</t>
-  </si>
-  <si>
-    <t>15,72%</t>
-  </si>
-  <si>
-    <t>21,81%</t>
-  </si>
-  <si>
-    <t>76,06%</t>
-  </si>
-  <si>
-    <t>69,7%</t>
-  </si>
-  <si>
-    <t>81,08%</t>
-  </si>
-  <si>
-    <t>73,09%</t>
-  </si>
-  <si>
-    <t>68,96%</t>
-  </si>
-  <si>
-    <t>77,63%</t>
-  </si>
-  <si>
-    <t>74,37%</t>
-  </si>
-  <si>
-    <t>71,02%</t>
-  </si>
-  <si>
-    <t>77,88%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>13,23%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>47,39%</t>
-  </si>
-  <si>
-    <t>40,36%</t>
-  </si>
-  <si>
-    <t>53,53%</t>
-  </si>
-  <si>
-    <t>51,2%</t>
-  </si>
-  <si>
-    <t>46,22%</t>
-  </si>
-  <si>
-    <t>56,4%</t>
-  </si>
-  <si>
-    <t>49,45%</t>
-  </si>
-  <si>
-    <t>45,28%</t>
-  </si>
-  <si>
-    <t>53,33%</t>
-  </si>
-  <si>
-    <t>38,2%</t>
-  </si>
-  <si>
-    <t>32,06%</t>
-  </si>
-  <si>
-    <t>44,75%</t>
-  </si>
-  <si>
-    <t>37,59%</t>
-  </si>
-  <si>
-    <t>32,91%</t>
-  </si>
-  <si>
-    <t>42,34%</t>
-  </si>
-  <si>
-    <t>37,87%</t>
-  </si>
-  <si>
-    <t>34,13%</t>
-  </si>
-  <si>
-    <t>42,01%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>27,6%</t>
+  </si>
+  <si>
+    <t>23,65%</t>
+  </si>
+  <si>
+    <t>31,99%</t>
+  </si>
+  <si>
+    <t>27,08%</t>
+  </si>
+  <si>
+    <t>16,47%</t>
+  </si>
+  <si>
+    <t>32,35%</t>
+  </si>
+  <si>
+    <t>27,31%</t>
+  </si>
+  <si>
+    <t>20,35%</t>
+  </si>
+  <si>
+    <t>30,83%</t>
+  </si>
+  <si>
+    <t>59,57%</t>
+  </si>
+  <si>
+    <t>68,48%</t>
+  </si>
+  <si>
+    <t>64,57%</t>
+  </si>
+  <si>
+    <t>57,87%</t>
+  </si>
+  <si>
+    <t>77,89%</t>
+  </si>
+  <si>
+    <t>64,4%</t>
+  </si>
+  <si>
+    <t>60,21%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>29,42%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
   </si>
   <si>
     <t>6,97%</t>
   </si>
   <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>16,25%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>15,86%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>14,8%</t>
-  </si>
-  <si>
-    <t>72,3%</t>
-  </si>
-  <si>
-    <t>67,0%</t>
-  </si>
-  <si>
-    <t>76,59%</t>
-  </si>
-  <si>
-    <t>74,39%</t>
-  </si>
-  <si>
-    <t>70,41%</t>
-  </si>
-  <si>
-    <t>78,0%</t>
-  </si>
-  <si>
-    <t>73,34%</t>
-  </si>
-  <si>
-    <t>70,28%</t>
-  </si>
-  <si>
-    <t>76,19%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>27,6%</t>
-  </si>
-  <si>
-    <t>23,97%</t>
-  </si>
-  <si>
-    <t>32,15%</t>
-  </si>
-  <si>
-    <t>27,08%</t>
-  </si>
-  <si>
-    <t>16,84%</t>
-  </si>
-  <si>
-    <t>32,69%</t>
-  </si>
-  <si>
-    <t>27,31%</t>
-  </si>
-  <si>
-    <t>19,66%</t>
-  </si>
-  <si>
-    <t>30,74%</t>
-  </si>
-  <si>
-    <t>59,8%</t>
-  </si>
-  <si>
-    <t>68,3%</t>
-  </si>
-  <si>
-    <t>64,57%</t>
-  </si>
-  <si>
-    <t>57,62%</t>
-  </si>
-  <si>
-    <t>77,41%</t>
-  </si>
-  <si>
-    <t>64,4%</t>
-  </si>
-  <si>
-    <t>60,32%</t>
-  </si>
-  <si>
-    <t>75,15%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>32,07%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>20,31%</t>
+    <t>20,53%</t>
   </si>
   <si>
     <t>14,48%</t>
   </si>
   <si>
-    <t>11,25%</t>
-  </si>
-  <si>
-    <t>17,4%</t>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>17,22%</t>
   </si>
   <si>
     <t>17,8%</t>
   </si>
   <si>
-    <t>15,75%</t>
-  </si>
-  <si>
-    <t>20,35%</t>
+    <t>15,59%</t>
+  </si>
+  <si>
+    <t>20,43%</t>
   </si>
   <si>
     <t>16,15%</t>
   </si>
   <si>
-    <t>14,2%</t>
-  </si>
-  <si>
-    <t>18,1%</t>
+    <t>14,16%</t>
+  </si>
+  <si>
+    <t>18,02%</t>
   </si>
   <si>
     <t>46,66%</t>
   </si>
   <si>
-    <t>37,49%</t>
-  </si>
-  <si>
-    <t>51,05%</t>
+    <t>37,83%</t>
+  </si>
+  <si>
+    <t>51,37%</t>
   </si>
   <si>
     <t>52,95%</t>
   </si>
   <si>
+    <t>49,66%</t>
+  </si>
+  <si>
+    <t>56,18%</t>
+  </si>
+  <si>
     <t>49,82%</t>
   </si>
   <si>
-    <t>56,29%</t>
-  </si>
-  <si>
-    <t>44,79%</t>
-  </si>
-  <si>
-    <t>52,7%</t>
+    <t>44,86%</t>
   </si>
   <si>
     <t>26,34%</t>
   </si>
   <si>
-    <t>21,26%</t>
-  </si>
-  <si>
-    <t>30,47%</t>
+    <t>20,17%</t>
+  </si>
+  <si>
+    <t>30,25%</t>
   </si>
   <si>
     <t>21,44%</t>
   </si>
   <si>
-    <t>18,68%</t>
-  </si>
-  <si>
-    <t>24,43%</t>
+    <t>18,78%</t>
+  </si>
+  <si>
+    <t>24,39%</t>
   </si>
   <si>
     <t>23,87%</t>
   </si>
   <si>
-    <t>21,08%</t>
-  </si>
-  <si>
-    <t>26,09%</t>
+    <t>21,18%</t>
+  </si>
+  <si>
+    <t>26,12%</t>
   </si>
   <si>
     <t>5,61%</t>
   </si>
   <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>12,87%</t>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
   </si>
   <si>
     <t>4,11%</t>
   </si>
   <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
     <t>4,82%</t>
   </si>
   <si>
-    <t>4,01%</t>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
   </si>
   <si>
     <t>7,75%</t>
   </si>
   <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
   </si>
   <si>
     <t>8,98%</t>
   </si>
   <si>
-    <t>9,92%</t>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
   </si>
   <si>
     <t>8,4%</t>
   </si>
   <si>
-    <t>7,72%</t>
+    <t>9,11%</t>
   </si>
   <si>
     <t>32,09%</t>
   </si>
   <si>
-    <t>29,99%</t>
-  </si>
-  <si>
-    <t>33,95%</t>
+    <t>30,08%</t>
+  </si>
+  <si>
+    <t>34,15%</t>
   </si>
   <si>
     <t>33,19%</t>
   </si>
   <si>
-    <t>30,0%</t>
-  </si>
-  <si>
-    <t>35,02%</t>
+    <t>30,11%</t>
+  </si>
+  <si>
+    <t>35,12%</t>
   </si>
   <si>
     <t>32,67%</t>
@@ -998,34 +983,34 @@
     <t>30,81%</t>
   </si>
   <si>
-    <t>33,93%</t>
+    <t>34,01%</t>
   </si>
   <si>
     <t>54,56%</t>
   </si>
   <si>
-    <t>51,64%</t>
-  </si>
-  <si>
-    <t>56,6%</t>
+    <t>51,3%</t>
+  </si>
+  <si>
+    <t>56,76%</t>
   </si>
   <si>
     <t>53,72%</t>
   </si>
   <si>
-    <t>51,55%</t>
-  </si>
-  <si>
-    <t>58,25%</t>
+    <t>51,51%</t>
+  </si>
+  <si>
+    <t>58,13%</t>
   </si>
   <si>
     <t>54,12%</t>
   </si>
   <si>
-    <t>52,46%</t>
-  </si>
-  <si>
-    <t>56,47%</t>
+    <t>52,37%</t>
+  </si>
+  <si>
+    <t>56,35%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1440,7 +1425,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA908DD8-72CD-476F-A8A1-FA739A0C268A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{037278C8-0CEA-4FBA-934E-E7C21CDD1CBF}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1618,10 +1603,10 @@
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>18</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>19</v>
       </c>
       <c r="H5" s="7">
         <v>10</v>
@@ -1630,13 +1615,13 @@
         <v>4505</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>21</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>22</v>
       </c>
       <c r="M5" s="7">
         <v>15</v>
@@ -1645,19 +1630,19 @@
         <v>7905</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>24</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C6" s="7">
         <v>113</v>
@@ -1666,13 +1651,13 @@
         <v>90563</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>28</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>29</v>
       </c>
       <c r="H6" s="7">
         <v>196</v>
@@ -1681,13 +1666,13 @@
         <v>91926</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>31</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>32</v>
       </c>
       <c r="M6" s="7">
         <v>309</v>
@@ -1696,19 +1681,19 @@
         <v>182489</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>34</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C7" s="7">
         <v>213</v>
@@ -1717,13 +1702,13 @@
         <v>166335</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>39</v>
       </c>
       <c r="H7" s="7">
         <v>332</v>
@@ -1732,13 +1717,13 @@
         <v>174972</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>41</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>42</v>
       </c>
       <c r="M7" s="7">
         <v>545</v>
@@ -1747,13 +1732,13 @@
         <v>341307</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1768,13 +1753,13 @@
         <v>260298</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H8" s="7">
         <v>538</v>
@@ -1783,13 +1768,13 @@
         <v>271403</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M8" s="7">
         <v>869</v>
@@ -1798,18 +1783,18 @@
         <v>531700</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
@@ -1821,13 +1806,13 @@
         <v>9259</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>49</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>50</v>
       </c>
       <c r="H9" s="7">
         <v>15</v>
@@ -1836,13 +1821,13 @@
         <v>12655</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="M9" s="7">
         <v>22</v>
@@ -1851,13 +1836,13 @@
         <v>21914</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="P9" s="7" t="s">
-        <v>52</v>
-      </c>
       <c r="Q9" s="7" t="s">
-        <v>22</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1872,13 +1857,13 @@
         <v>31734</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H10" s="7">
         <v>61</v>
@@ -1887,13 +1872,13 @@
         <v>43003</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M10" s="7">
         <v>87</v>
@@ -1902,19 +1887,19 @@
         <v>74738</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C11" s="7">
         <v>130</v>
@@ -1923,13 +1908,13 @@
         <v>189518</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H11" s="7">
         <v>248</v>
@@ -1938,13 +1923,13 @@
         <v>192248</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>34</v>
+        <v>69</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="M11" s="7">
         <v>378</v>
@@ -1953,19 +1938,19 @@
         <v>381766</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C12" s="7">
         <v>218</v>
@@ -1974,13 +1959,13 @@
         <v>287825</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H12" s="7">
         <v>392</v>
@@ -1989,13 +1974,13 @@
         <v>305208</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="M12" s="7">
         <v>610</v>
@@ -2004,13 +1989,13 @@
         <v>593034</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2025,13 +2010,13 @@
         <v>518336</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H13" s="7">
         <v>716</v>
@@ -2040,13 +2025,13 @@
         <v>553114</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M13" s="7">
         <v>1097</v>
@@ -2055,18 +2040,18 @@
         <v>1071451</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -2078,13 +2063,13 @@
         <v>14390</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>84</v>
+        <v>62</v>
       </c>
       <c r="H14" s="7">
         <v>34</v>
@@ -2093,13 +2078,13 @@
         <v>18814</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>50</v>
+        <v>87</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="M14" s="7">
         <v>53</v>
@@ -2108,13 +2093,13 @@
         <v>33203</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2129,13 +2114,13 @@
         <v>20612</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H15" s="7">
         <v>54</v>
@@ -2144,13 +2129,13 @@
         <v>32128</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="M15" s="7">
         <v>81</v>
@@ -2159,19 +2144,19 @@
         <v>52741</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C16" s="7">
         <v>56</v>
@@ -2180,13 +2165,13 @@
         <v>45408</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="H16" s="7">
         <v>102</v>
@@ -2195,13 +2180,13 @@
         <v>67800</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="M16" s="7">
         <v>158</v>
@@ -2210,19 +2195,19 @@
         <v>113208</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C17" s="7">
         <v>258</v>
@@ -2231,13 +2216,13 @@
         <v>241831</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="H17" s="7">
         <v>346</v>
@@ -2246,13 +2231,13 @@
         <v>254542</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="M17" s="7">
         <v>604</v>
@@ -2261,13 +2246,13 @@
         <v>496372</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2282,13 +2267,13 @@
         <v>322240</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H18" s="7">
         <v>536</v>
@@ -2297,13 +2282,13 @@
         <v>373284</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M18" s="7">
         <v>896</v>
@@ -2312,18 +2297,18 @@
         <v>695524</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2335,13 +2320,13 @@
         <v>5825</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="H19" s="7">
         <v>17</v>
@@ -2350,13 +2335,13 @@
         <v>9721</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="M19" s="7">
         <v>23</v>
@@ -2365,13 +2350,13 @@
         <v>15546</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>125</v>
+        <v>54</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2386,13 +2371,13 @@
         <v>12488</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H20" s="7">
         <v>39</v>
@@ -2401,13 +2386,13 @@
         <v>24430</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="M20" s="7">
         <v>50</v>
@@ -2416,19 +2401,19 @@
         <v>36919</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C21" s="7">
         <v>57</v>
@@ -2437,13 +2422,13 @@
         <v>58828</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="H21" s="7">
         <v>142</v>
@@ -2452,13 +2437,13 @@
         <v>80695</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M21" s="7">
         <v>199</v>
@@ -2467,19 +2452,19 @@
         <v>139523</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C22" s="7">
         <v>218</v>
@@ -2488,13 +2473,13 @@
         <v>245099</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H22" s="7">
         <v>398</v>
@@ -2503,13 +2488,13 @@
         <v>311908</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M22" s="7">
         <v>616</v>
@@ -2518,13 +2503,13 @@
         <v>557007</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2539,13 +2524,13 @@
         <v>322240</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H23" s="7">
         <v>596</v>
@@ -2554,13 +2539,13 @@
         <v>426754</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M23" s="7">
         <v>888</v>
@@ -2569,13 +2554,13 @@
         <v>748994</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2598,7 +2583,7 @@
         <v>156</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>157</v>
+        <v>100</v>
       </c>
       <c r="H24" s="7">
         <v>18</v>
@@ -2607,13 +2592,13 @@
         <v>7556</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>160</v>
       </c>
       <c r="M24" s="7">
         <v>32</v>
@@ -2622,13 +2607,13 @@
         <v>17734</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2643,13 +2628,13 @@
         <v>18168</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>166</v>
       </c>
       <c r="H25" s="7">
         <v>43</v>
@@ -2658,13 +2643,13 @@
         <v>18415</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>169</v>
       </c>
       <c r="M25" s="7">
         <v>71</v>
@@ -2673,19 +2658,19 @@
         <v>36583</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C26" s="7">
         <v>140</v>
@@ -2694,13 +2679,13 @@
         <v>93248</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="H26" s="7">
         <v>260</v>
@@ -2709,13 +2694,13 @@
         <v>118516</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>178</v>
       </c>
       <c r="M26" s="7">
         <v>400</v>
@@ -2724,19 +2709,19 @@
         <v>211764</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C27" s="7">
         <v>97</v>
@@ -2745,13 +2730,13 @@
         <v>75153</v>
       </c>
       <c r="E27" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="G27" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>184</v>
       </c>
       <c r="H27" s="7">
         <v>170</v>
@@ -2760,13 +2745,13 @@
         <v>87009</v>
       </c>
       <c r="J27" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="L27" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>187</v>
       </c>
       <c r="M27" s="7">
         <v>267</v>
@@ -2775,13 +2760,13 @@
         <v>162162</v>
       </c>
       <c r="O27" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q27" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2796,13 +2781,13 @@
         <v>196748</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H28" s="7">
         <v>491</v>
@@ -2811,13 +2796,13 @@
         <v>231496</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M28" s="7">
         <v>770</v>
@@ -2826,18 +2811,18 @@
         <v>428244</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -2849,13 +2834,13 @@
         <v>19546</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>192</v>
+        <v>88</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>193</v>
+        <v>134</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="H29" s="7">
         <v>32</v>
@@ -2864,13 +2849,13 @@
         <v>12014</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="M29" s="7">
         <v>67</v>
@@ -2879,13 +2864,13 @@
         <v>31560</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>200</v>
+        <v>136</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2900,13 +2885,13 @@
         <v>22999</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="H30" s="7">
         <v>58</v>
@@ -2915,13 +2900,13 @@
         <v>24966</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="M30" s="7">
         <v>94</v>
@@ -2930,19 +2915,19 @@
         <v>47964</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C31" s="7">
         <v>47</v>
@@ -2951,13 +2936,13 @@
         <v>34249</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="H31" s="7">
         <v>65</v>
@@ -2966,13 +2951,13 @@
         <v>33607</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="M31" s="7">
         <v>112</v>
@@ -2981,19 +2966,19 @@
         <v>67857</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C32" s="7">
         <v>253</v>
@@ -3002,13 +2987,13 @@
         <v>200429</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="H32" s="7">
         <v>305</v>
@@ -3017,13 +3002,13 @@
         <v>205035</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="M32" s="7">
         <v>558</v>
@@ -3032,13 +3017,13 @@
         <v>405464</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3053,13 +3038,13 @@
         <v>277223</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H33" s="7">
         <v>460</v>
@@ -3068,13 +3053,13 @@
         <v>275622</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M33" s="7">
         <v>831</v>
@@ -3083,18 +3068,18 @@
         <v>552845</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -3106,13 +3091,13 @@
         <v>23060</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="H34" s="7">
         <v>44</v>
@@ -3121,13 +3106,13 @@
         <v>27578</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>54</v>
+        <v>228</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="M34" s="7">
         <v>69</v>
@@ -3136,13 +3121,13 @@
         <v>50638</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3157,13 +3142,13 @@
         <v>28462</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="H35" s="7">
         <v>50</v>
@@ -3172,13 +3157,13 @@
         <v>39350</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>86</v>
+        <v>136</v>
       </c>
       <c r="M35" s="7">
         <v>81</v>
@@ -3187,19 +3172,19 @@
         <v>67812</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C36" s="7">
         <v>168</v>
@@ -3208,13 +3193,13 @@
         <v>173281</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="H36" s="7">
         <v>307</v>
@@ -3223,13 +3208,13 @@
         <v>217000</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="M36" s="7">
         <v>475</v>
@@ -3238,19 +3223,19 @@
         <v>390282</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C37" s="7">
         <v>375</v>
@@ -3259,13 +3244,13 @@
         <v>402951</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="H37" s="7">
         <v>555</v>
@@ -3274,13 +3259,13 @@
         <v>517452</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="M37" s="7">
         <v>930</v>
@@ -3289,13 +3274,13 @@
         <v>920404</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>260</v>
+        <v>149</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3310,13 +3295,13 @@
         <v>627754</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H38" s="7">
         <v>956</v>
@@ -3325,13 +3310,13 @@
         <v>801381</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M38" s="7">
         <v>1555</v>
@@ -3340,18 +3325,18 @@
         <v>1429136</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>10</v>
@@ -3363,13 +3348,13 @@
         <v>107457</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="H39" s="7">
         <v>93</v>
@@ -3378,13 +3363,13 @@
         <v>67901</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="M39" s="7">
         <v>154</v>
@@ -3393,13 +3378,13 @@
         <v>175357</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -3414,13 +3399,13 @@
         <v>124273</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="H40" s="7">
         <v>215</v>
@@ -3429,13 +3414,13 @@
         <v>154585</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="M40" s="7">
         <v>344</v>
@@ -3444,19 +3429,19 @@
         <v>278858</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
       <c r="B41" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C41" s="7">
         <v>384</v>
@@ -3465,13 +3450,13 @@
         <v>400449</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="H41" s="7">
         <v>542</v>
@@ -3480,13 +3465,13 @@
         <v>459795</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="M41" s="7">
         <v>926</v>
@@ -3495,19 +3480,19 @@
         <v>860245</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C42" s="7">
         <v>187</v>
@@ -3516,13 +3501,13 @@
         <v>226076</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="H42" s="7">
         <v>212</v>
@@ -3531,13 +3516,13 @@
         <v>186153</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="M42" s="7">
         <v>399</v>
@@ -3546,13 +3531,13 @@
         <v>412229</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3567,13 +3552,13 @@
         <v>858255</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H43" s="7">
         <v>1062</v>
@@ -3582,13 +3567,13 @@
         <v>868434</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M43" s="7">
         <v>1823</v>
@@ -3597,13 +3582,13 @@
         <v>1726690</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -3620,13 +3605,13 @@
         <v>189715</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="H44" s="7">
         <v>253</v>
@@ -3635,13 +3620,13 @@
         <v>156237</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>301</v>
+        <v>230</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>302</v>
+        <v>229</v>
       </c>
       <c r="M44" s="7">
         <v>420</v>
@@ -3650,13 +3635,13 @@
         <v>345952</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>135</v>
+        <v>298</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3671,13 +3656,13 @@
         <v>262137</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="H45" s="7">
         <v>530</v>
@@ -3686,13 +3671,13 @@
         <v>341382</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>167</v>
+        <v>303</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="M45" s="7">
         <v>823</v>
@@ -3701,19 +3686,19 @@
         <v>603519</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>211</v>
+        <v>306</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="1"/>
       <c r="B46" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C46" s="7">
         <v>1095</v>
@@ -3722,13 +3707,13 @@
         <v>1085544</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="H46" s="7">
         <v>1862</v>
@@ -3737,34 +3722,34 @@
         <v>1261589</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="M46" s="7">
         <v>2957</v>
       </c>
       <c r="N46" s="7">
-        <v>2347133</v>
+        <v>2347134</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
       <c r="B47" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C47" s="7">
         <v>1819</v>
@@ -3773,43 +3758,43 @@
         <v>1845698</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="H47" s="7">
         <v>2710</v>
       </c>
       <c r="I47" s="7">
-        <v>2042279</v>
+        <v>2042280</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="M47" s="7">
         <v>4529</v>
       </c>
       <c r="N47" s="7">
-        <v>3887978</v>
+        <v>3887979</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -3824,48 +3809,48 @@
         <v>3383094</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H48" s="7">
         <v>5355</v>
       </c>
       <c r="I48" s="7">
-        <v>3801488</v>
+        <v>3801489</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M48" s="7">
         <v>8729</v>
       </c>
       <c r="N48" s="7">
-        <v>7184583</v>
+        <v>7184584</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P57B3_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P57B3_2023-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DABCFFF7-A682-44EB-B57D-2B9F2D91C0E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C3C324F3-03C8-4C8A-8F53-D1A1F45C735F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C0024716-8664-431F-BA31-B531C870D050}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{7C1058D2-8D50-43BD-8007-6AE74359A5FD}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="329">
   <si>
     <t>Población según se ha sentido solo/a en 2023 (Tasa respuesta: 99,84%)</t>
   </si>
@@ -89,928 +89,937 @@
     <t>Buena parte del tiempo</t>
   </si>
   <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>En algún momento</t>
+  </si>
+  <si>
+    <t>35,25%</t>
+  </si>
+  <si>
+    <t>28,76%</t>
+  </si>
+  <si>
+    <t>42,59%</t>
+  </si>
+  <si>
+    <t>32,9%</t>
+  </si>
+  <si>
+    <t>28,4%</t>
+  </si>
+  <si>
+    <t>37,08%</t>
+  </si>
+  <si>
+    <t>34,12%</t>
+  </si>
+  <si>
+    <t>30,14%</t>
+  </si>
+  <si>
+    <t>38,44%</t>
+  </si>
+  <si>
+    <t>En ningún momento o en casi ningún momento</t>
+  </si>
+  <si>
+    <t>63,54%</t>
+  </si>
+  <si>
+    <t>56,32%</t>
+  </si>
+  <si>
+    <t>70,27%</t>
+  </si>
+  <si>
+    <t>65,5%</t>
+  </si>
+  <si>
+    <t>61,12%</t>
+  </si>
+  <si>
+    <t>70,11%</t>
+  </si>
+  <si>
+    <t>64,49%</t>
+  </si>
+  <si>
+    <t>60,21%</t>
+  </si>
+  <si>
+    <t>68,33%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>37,23%</t>
+  </si>
+  <si>
+    <t>32,19%</t>
+  </si>
+  <si>
+    <t>43,37%</t>
+  </si>
+  <si>
+    <t>34,83%</t>
+  </si>
+  <si>
+    <t>31,08%</t>
+  </si>
+  <si>
+    <t>38,79%</t>
+  </si>
+  <si>
+    <t>36,03%</t>
+  </si>
+  <si>
+    <t>32,52%</t>
+  </si>
+  <si>
+    <t>39,35%</t>
+  </si>
+  <si>
+    <t>55,09%</t>
+  </si>
+  <si>
+    <t>49,06%</t>
+  </si>
+  <si>
+    <t>60,14%</t>
+  </si>
+  <si>
+    <t>55,08%</t>
+  </si>
+  <si>
+    <t>50,94%</t>
+  </si>
+  <si>
+    <t>58,77%</t>
+  </si>
+  <si>
+    <t>51,67%</t>
+  </si>
+  <si>
+    <t>58,44%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>13,96%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>18,01%</t>
+  </si>
+  <si>
+    <t>18,23%</t>
+  </si>
+  <si>
+    <t>15,05%</t>
+  </si>
+  <si>
+    <t>22,08%</t>
+  </si>
+  <si>
+    <t>16,2%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>18,76%</t>
+  </si>
+  <si>
+    <t>75,4%</t>
+  </si>
+  <si>
+    <t>70,6%</t>
+  </si>
+  <si>
+    <t>80,13%</t>
+  </si>
+  <si>
+    <t>68,3%</t>
+  </si>
+  <si>
+    <t>64,0%</t>
+  </si>
+  <si>
+    <t>72,43%</t>
+  </si>
+  <si>
+    <t>71,67%</t>
+  </si>
+  <si>
+    <t>68,34%</t>
+  </si>
+  <si>
+    <t>74,35%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>17,84%</t>
+  </si>
+  <si>
+    <t>13,63%</t>
+  </si>
+  <si>
+    <t>23,33%</t>
+  </si>
+  <si>
+    <t>15,92%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>16,68%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>20,27%</t>
+  </si>
+  <si>
+    <t>76,58%</t>
+  </si>
+  <si>
+    <t>70,57%</t>
+  </si>
+  <si>
+    <t>81,79%</t>
+  </si>
+  <si>
+    <t>77,49%</t>
+  </si>
+  <si>
+    <t>71,23%</t>
+  </si>
+  <si>
+    <t>86,44%</t>
+  </si>
+  <si>
+    <t>77,13%</t>
+  </si>
+  <si>
+    <t>72,78%</t>
+  </si>
+  <si>
+    <t>82,81%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>13,01%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>47,55%</t>
+  </si>
+  <si>
+    <t>41,02%</t>
+  </si>
+  <si>
+    <t>53,89%</t>
+  </si>
+  <si>
+    <t>51,42%</t>
+  </si>
+  <si>
+    <t>46,64%</t>
+  </si>
+  <si>
+    <t>56,77%</t>
+  </si>
+  <si>
+    <t>49,63%</t>
+  </si>
+  <si>
+    <t>45,79%</t>
+  </si>
+  <si>
+    <t>53,51%</t>
+  </si>
+  <si>
+    <t>38,11%</t>
+  </si>
+  <si>
+    <t>31,86%</t>
+  </si>
+  <si>
+    <t>44,23%</t>
+  </si>
+  <si>
+    <t>37,26%</t>
+  </si>
+  <si>
+    <t>32,41%</t>
+  </si>
+  <si>
+    <t>41,97%</t>
+  </si>
+  <si>
+    <t>37,65%</t>
+  </si>
+  <si>
+    <t>33,93%</t>
+  </si>
+  <si>
+    <t>41,92%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>11,62%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>12,24%</t>
+  </si>
+  <si>
+    <t>12,14%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>72,59%</t>
+  </si>
+  <si>
+    <t>67,68%</t>
+  </si>
+  <si>
+    <t>76,84%</t>
+  </si>
+  <si>
+    <t>74,44%</t>
+  </si>
+  <si>
+    <t>69,62%</t>
+  </si>
+  <si>
+    <t>77,81%</t>
+  </si>
+  <si>
+    <t>73,49%</t>
+  </si>
+  <si>
+    <t>70,31%</t>
+  </si>
+  <si>
+    <t>76,61%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>27,98%</t>
+  </si>
+  <si>
+    <t>23,73%</t>
+  </si>
+  <si>
+    <t>32,96%</t>
+  </si>
+  <si>
+    <t>23,84%</t>
+  </si>
+  <si>
+    <t>11,52%</t>
+  </si>
+  <si>
+    <t>32,3%</t>
+  </si>
+  <si>
+    <t>25,6%</t>
+  </si>
+  <si>
+    <t>16,23%</t>
+  </si>
+  <si>
+    <t>30,71%</t>
+  </si>
+  <si>
+    <t>64,04%</t>
+  </si>
+  <si>
+    <t>59,03%</t>
+  </si>
+  <si>
+    <t>68,42%</t>
+  </si>
+  <si>
+    <t>68,94%</t>
+  </si>
+  <si>
+    <t>58,06%</t>
+  </si>
+  <si>
+    <t>84,6%</t>
+  </si>
+  <si>
+    <t>66,86%</t>
+  </si>
+  <si>
+    <t>60,44%</t>
+  </si>
+  <si>
+    <t>79,17%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>31,47%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>66,51%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>21,2%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>51,39%</t>
+  </si>
+  <si>
+    <t>11,47%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>16,6%</t>
+  </si>
+  <si>
+    <t>18,06%</t>
+  </si>
+  <si>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>20,72%</t>
+  </si>
+  <si>
+    <t>14,35%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>17,56%</t>
+  </si>
+  <si>
+    <t>36,61%</t>
+  </si>
+  <si>
+    <t>17,88%</t>
+  </si>
+  <si>
+    <t>50,75%</t>
+  </si>
+  <si>
+    <t>52,69%</t>
+  </si>
+  <si>
+    <t>49,51%</t>
+  </si>
+  <si>
+    <t>55,92%</t>
+  </si>
+  <si>
+    <t>43,63%</t>
+  </si>
+  <si>
+    <t>26,4%</t>
+  </si>
+  <si>
+    <t>52,18%</t>
+  </si>
+  <si>
+    <t>20,45%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>21,33%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>24,29%</t>
+  </si>
+  <si>
+    <t>20,83%</t>
+  </si>
+  <si>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>25,12%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>33,71%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
   </si>
   <si>
     <t>3,08%</t>
   </si>
   <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>En algún momento</t>
-  </si>
-  <si>
-    <t>34,79%</t>
-  </si>
-  <si>
-    <t>28,94%</t>
-  </si>
-  <si>
-    <t>41,13%</t>
-  </si>
-  <si>
-    <t>33,87%</t>
-  </si>
-  <si>
-    <t>29,61%</t>
-  </si>
-  <si>
-    <t>38,31%</t>
-  </si>
-  <si>
-    <t>34,32%</t>
-  </si>
-  <si>
-    <t>30,88%</t>
-  </si>
-  <si>
-    <t>38,15%</t>
-  </si>
-  <si>
-    <t>En ningún momento o en casi ningún momento</t>
-  </si>
-  <si>
-    <t>63,9%</t>
-  </si>
-  <si>
-    <t>57,69%</t>
-  </si>
-  <si>
-    <t>69,62%</t>
-  </si>
-  <si>
-    <t>64,47%</t>
-  </si>
-  <si>
-    <t>60,07%</t>
-  </si>
-  <si>
-    <t>68,9%</t>
-  </si>
-  <si>
-    <t>64,19%</t>
-  </si>
-  <si>
-    <t>60,49%</t>
-  </si>
-  <si>
-    <t>67,72%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>36,56%</t>
-  </si>
-  <si>
-    <t>31,6%</t>
-  </si>
-  <si>
-    <t>42,28%</t>
-  </si>
-  <si>
-    <t>34,76%</t>
-  </si>
-  <si>
-    <t>31,03%</t>
-  </si>
-  <si>
-    <t>38,7%</t>
-  </si>
-  <si>
-    <t>35,63%</t>
-  </si>
-  <si>
-    <t>32,26%</t>
-  </si>
-  <si>
-    <t>38,81%</t>
-  </si>
-  <si>
-    <t>55,53%</t>
-  </si>
-  <si>
-    <t>49,8%</t>
-  </si>
-  <si>
-    <t>60,48%</t>
-  </si>
-  <si>
-    <t>55,18%</t>
-  </si>
-  <si>
-    <t>50,99%</t>
-  </si>
-  <si>
-    <t>58,92%</t>
-  </si>
-  <si>
-    <t>55,35%</t>
-  </si>
-  <si>
-    <t>52,04%</t>
-  </si>
-  <si>
-    <t>58,56%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>18,14%</t>
-  </si>
-  <si>
-    <t>18,16%</t>
-  </si>
-  <si>
-    <t>15,02%</t>
-  </si>
-  <si>
-    <t>21,95%</t>
-  </si>
-  <si>
-    <t>16,28%</t>
-  </si>
-  <si>
-    <t>13,99%</t>
-  </si>
-  <si>
-    <t>18,77%</t>
-  </si>
-  <si>
-    <t>75,05%</t>
-  </si>
-  <si>
-    <t>70,28%</t>
-  </si>
-  <si>
-    <t>79,79%</t>
-  </si>
-  <si>
-    <t>68,19%</t>
-  </si>
-  <si>
-    <t>63,89%</t>
-  </si>
-  <si>
-    <t>72,32%</t>
-  </si>
-  <si>
-    <t>71,37%</t>
-  </si>
-  <si>
-    <t>68,01%</t>
-  </si>
-  <si>
-    <t>74,04%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>18,26%</t>
-  </si>
-  <si>
-    <t>13,9%</t>
-  </si>
-  <si>
-    <t>23,81%</t>
-  </si>
-  <si>
-    <t>18,91%</t>
-  </si>
-  <si>
-    <t>15,34%</t>
-  </si>
-  <si>
-    <t>22,51%</t>
-  </si>
-  <si>
-    <t>18,63%</t>
-  </si>
-  <si>
-    <t>15,79%</t>
-  </si>
-  <si>
-    <t>21,69%</t>
-  </si>
-  <si>
-    <t>76,06%</t>
-  </si>
-  <si>
-    <t>70,1%</t>
-  </si>
-  <si>
-    <t>81,31%</t>
-  </si>
-  <si>
-    <t>73,09%</t>
-  </si>
-  <si>
-    <t>68,98%</t>
-  </si>
-  <si>
-    <t>77,65%</t>
-  </si>
-  <si>
-    <t>74,37%</t>
-  </si>
-  <si>
-    <t>70,72%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>13,04%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>47,39%</t>
-  </si>
-  <si>
-    <t>40,9%</t>
-  </si>
-  <si>
-    <t>53,83%</t>
-  </si>
-  <si>
-    <t>51,2%</t>
-  </si>
-  <si>
-    <t>46,49%</t>
-  </si>
-  <si>
-    <t>56,61%</t>
-  </si>
-  <si>
-    <t>49,45%</t>
-  </si>
-  <si>
-    <t>45,55%</t>
-  </si>
-  <si>
-    <t>53,39%</t>
-  </si>
-  <si>
-    <t>38,2%</t>
-  </si>
-  <si>
-    <t>31,91%</t>
-  </si>
-  <si>
-    <t>44,47%</t>
-  </si>
-  <si>
-    <t>37,59%</t>
-  </si>
-  <si>
-    <t>32,48%</t>
-  </si>
-  <si>
-    <t>42,46%</t>
-  </si>
-  <si>
-    <t>37,87%</t>
-  </si>
-  <si>
-    <t>33,99%</t>
-  </si>
-  <si>
-    <t>42,17%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>16,06%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>15,6%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>14,89%</t>
-  </si>
-  <si>
-    <t>72,3%</t>
-  </si>
-  <si>
-    <t>67,44%</t>
-  </si>
-  <si>
-    <t>76,57%</t>
-  </si>
-  <si>
-    <t>74,39%</t>
-  </si>
-  <si>
-    <t>69,61%</t>
-  </si>
-  <si>
-    <t>77,82%</t>
-  </si>
-  <si>
-    <t>73,34%</t>
-  </si>
-  <si>
-    <t>70,18%</t>
-  </si>
-  <si>
-    <t>76,41%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>27,6%</t>
-  </si>
-  <si>
-    <t>23,65%</t>
-  </si>
-  <si>
-    <t>31,99%</t>
-  </si>
-  <si>
-    <t>27,08%</t>
-  </si>
-  <si>
-    <t>16,47%</t>
-  </si>
-  <si>
-    <t>32,35%</t>
-  </si>
-  <si>
-    <t>27,31%</t>
-  </si>
-  <si>
-    <t>20,35%</t>
-  </si>
-  <si>
-    <t>30,83%</t>
-  </si>
-  <si>
-    <t>59,57%</t>
-  </si>
-  <si>
-    <t>68,48%</t>
-  </si>
-  <si>
-    <t>64,57%</t>
-  </si>
-  <si>
-    <t>57,87%</t>
-  </si>
-  <si>
-    <t>77,89%</t>
-  </si>
-  <si>
-    <t>64,4%</t>
-  </si>
-  <si>
-    <t>60,21%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>29,42%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>20,53%</t>
-  </si>
-  <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>17,22%</t>
-  </si>
-  <si>
-    <t>17,8%</t>
-  </si>
-  <si>
-    <t>15,59%</t>
-  </si>
-  <si>
-    <t>20,43%</t>
-  </si>
-  <si>
-    <t>16,15%</t>
-  </si>
-  <si>
-    <t>14,16%</t>
-  </si>
-  <si>
-    <t>18,02%</t>
-  </si>
-  <si>
-    <t>46,66%</t>
-  </si>
-  <si>
-    <t>37,83%</t>
-  </si>
-  <si>
-    <t>51,37%</t>
-  </si>
-  <si>
-    <t>52,95%</t>
-  </si>
-  <si>
-    <t>49,66%</t>
-  </si>
-  <si>
-    <t>56,18%</t>
-  </si>
-  <si>
-    <t>49,82%</t>
-  </si>
-  <si>
-    <t>44,86%</t>
-  </si>
-  <si>
-    <t>26,34%</t>
-  </si>
-  <si>
-    <t>20,17%</t>
-  </si>
-  <si>
-    <t>30,25%</t>
-  </si>
-  <si>
-    <t>21,44%</t>
-  </si>
-  <si>
-    <t>18,78%</t>
-  </si>
-  <si>
-    <t>24,39%</t>
-  </si>
-  <si>
-    <t>23,87%</t>
-  </si>
-  <si>
-    <t>21,18%</t>
-  </si>
-  <si>
-    <t>26,12%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>32,09%</t>
-  </si>
-  <si>
-    <t>30,08%</t>
-  </si>
-  <si>
-    <t>34,15%</t>
-  </si>
-  <si>
-    <t>33,19%</t>
-  </si>
-  <si>
-    <t>30,11%</t>
-  </si>
-  <si>
-    <t>35,12%</t>
-  </si>
-  <si>
-    <t>32,67%</t>
-  </si>
-  <si>
-    <t>30,81%</t>
-  </si>
-  <si>
-    <t>34,01%</t>
-  </si>
-  <si>
-    <t>54,56%</t>
-  </si>
-  <si>
-    <t>51,3%</t>
-  </si>
-  <si>
-    <t>56,76%</t>
-  </si>
-  <si>
-    <t>53,72%</t>
-  </si>
-  <si>
-    <t>51,51%</t>
-  </si>
-  <si>
-    <t>58,13%</t>
-  </si>
-  <si>
-    <t>54,12%</t>
-  </si>
-  <si>
-    <t>52,37%</t>
-  </si>
-  <si>
-    <t>56,35%</t>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>18,5%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>29,92%</t>
+  </si>
+  <si>
+    <t>22,58%</t>
+  </si>
+  <si>
+    <t>30,95%</t>
+  </si>
+  <si>
+    <t>25,51%</t>
+  </si>
+  <si>
+    <t>33,84%</t>
+  </si>
+  <si>
+    <t>30,45%</t>
+  </si>
+  <si>
+    <t>26,55%</t>
+  </si>
+  <si>
+    <t>32,64%</t>
+  </si>
+  <si>
+    <t>52,46%</t>
+  </si>
+  <si>
+    <t>39,41%</t>
+  </si>
+  <si>
+    <t>57,27%</t>
+  </si>
+  <si>
+    <t>57,0%</t>
+  </si>
+  <si>
+    <t>53,22%</t>
+  </si>
+  <si>
+    <t>64,96%</t>
+  </si>
+  <si>
+    <t>54,79%</t>
+  </si>
+  <si>
+    <t>48,38%</t>
+  </si>
+  <si>
+    <t>58,52%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1425,7 +1434,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{037278C8-0CEA-4FBA-934E-E7C21CDD1CBF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8575F02E-46F9-4363-B758-FD3071B70A9C}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1597,148 +1606,148 @@
         <v>5</v>
       </c>
       <c r="D5" s="7">
-        <v>3400</v>
+        <v>3744</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H5" s="7">
         <v>10</v>
       </c>
       <c r="I5" s="7">
-        <v>4505</v>
+        <v>4624</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M5" s="7">
         <v>15</v>
       </c>
       <c r="N5" s="7">
-        <v>7905</v>
+        <v>8367</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" s="7">
         <v>113</v>
       </c>
       <c r="D6" s="7">
-        <v>90563</v>
+        <v>109794</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H6" s="7">
         <v>196</v>
       </c>
       <c r="I6" s="7">
-        <v>91926</v>
+        <v>95297</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M6" s="7">
         <v>309</v>
       </c>
       <c r="N6" s="7">
-        <v>182489</v>
+        <v>205091</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C7" s="7">
         <v>213</v>
       </c>
       <c r="D7" s="7">
-        <v>166335</v>
+        <v>197905</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H7" s="7">
         <v>332</v>
       </c>
       <c r="I7" s="7">
-        <v>174972</v>
+        <v>189714</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M7" s="7">
         <v>545</v>
       </c>
       <c r="N7" s="7">
-        <v>341307</v>
+        <v>387619</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1750,51 +1759,51 @@
         <v>331</v>
       </c>
       <c r="D8" s="7">
-        <v>260298</v>
+        <v>311443</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H8" s="7">
         <v>538</v>
       </c>
       <c r="I8" s="7">
-        <v>271403</v>
+        <v>289635</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
         <v>869</v>
       </c>
       <c r="N8" s="7">
-        <v>531700</v>
+        <v>601077</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
@@ -1803,46 +1812,46 @@
         <v>7</v>
       </c>
       <c r="D9" s="7">
-        <v>9259</v>
+        <v>8926</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H9" s="7">
         <v>15</v>
       </c>
       <c r="I9" s="7">
-        <v>12655</v>
+        <v>11795</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M9" s="7">
         <v>22</v>
       </c>
       <c r="N9" s="7">
-        <v>21914</v>
+        <v>20721</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1854,142 +1863,142 @@
         <v>26</v>
       </c>
       <c r="D10" s="7">
-        <v>31734</v>
+        <v>30807</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H10" s="7">
         <v>61</v>
       </c>
       <c r="I10" s="7">
-        <v>43003</v>
+        <v>40054</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M10" s="7">
         <v>87</v>
       </c>
       <c r="N10" s="7">
-        <v>74738</v>
+        <v>70861</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" s="7">
         <v>130</v>
       </c>
       <c r="D11" s="7">
-        <v>189518</v>
+        <v>192670</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H11" s="7">
         <v>248</v>
       </c>
       <c r="I11" s="7">
-        <v>192248</v>
+        <v>178988</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M11" s="7">
         <v>378</v>
       </c>
       <c r="N11" s="7">
-        <v>381766</v>
+        <v>371657</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C12" s="7">
         <v>218</v>
       </c>
       <c r="D12" s="7">
-        <v>287825</v>
+        <v>285120</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H12" s="7">
         <v>392</v>
       </c>
       <c r="I12" s="7">
-        <v>305208</v>
+        <v>283040</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M12" s="7">
         <v>610</v>
       </c>
       <c r="N12" s="7">
-        <v>593034</v>
+        <v>568160</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="P12" s="7" t="s">
         <v>81</v>
@@ -2007,46 +2016,46 @@
         <v>381</v>
       </c>
       <c r="D13" s="7">
-        <v>518336</v>
+        <v>517522</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H13" s="7">
         <v>716</v>
       </c>
       <c r="I13" s="7">
-        <v>553114</v>
+        <v>513877</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M13" s="7">
         <v>1097</v>
       </c>
       <c r="N13" s="7">
-        <v>1071451</v>
+        <v>1031399</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2060,7 +2069,7 @@
         <v>19</v>
       </c>
       <c r="D14" s="7">
-        <v>14390</v>
+        <v>13886</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>84</v>
@@ -2069,37 +2078,37 @@
         <v>85</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>62</v>
+        <v>86</v>
       </c>
       <c r="H14" s="7">
         <v>34</v>
       </c>
       <c r="I14" s="7">
-        <v>18814</v>
+        <v>17336</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M14" s="7">
         <v>53</v>
       </c>
       <c r="N14" s="7">
-        <v>33203</v>
+        <v>31222</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2111,148 +2120,148 @@
         <v>27</v>
       </c>
       <c r="D15" s="7">
-        <v>20612</v>
+        <v>19747</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H15" s="7">
         <v>54</v>
       </c>
       <c r="I15" s="7">
-        <v>32128</v>
+        <v>29686</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M15" s="7">
         <v>81</v>
       </c>
       <c r="N15" s="7">
-        <v>52741</v>
+        <v>49434</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C16" s="7">
         <v>56</v>
       </c>
       <c r="D16" s="7">
-        <v>45408</v>
+        <v>44127</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H16" s="7">
         <v>102</v>
       </c>
       <c r="I16" s="7">
-        <v>67800</v>
+        <v>63658</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M16" s="7">
         <v>158</v>
       </c>
       <c r="N16" s="7">
-        <v>113208</v>
+        <v>107785</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C17" s="7">
         <v>258</v>
       </c>
       <c r="D17" s="7">
-        <v>241831</v>
+        <v>238290</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H17" s="7">
         <v>346</v>
       </c>
       <c r="I17" s="7">
-        <v>254542</v>
+        <v>238447</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="M17" s="7">
         <v>604</v>
       </c>
       <c r="N17" s="7">
-        <v>496372</v>
+        <v>476738</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2264,51 +2273,51 @@
         <v>360</v>
       </c>
       <c r="D18" s="7">
-        <v>322240</v>
+        <v>316050</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H18" s="7">
         <v>536</v>
       </c>
       <c r="I18" s="7">
-        <v>373284</v>
+        <v>349128</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M18" s="7">
         <v>896</v>
       </c>
       <c r="N18" s="7">
-        <v>695524</v>
+        <v>665178</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2317,10 +2326,10 @@
         <v>6</v>
       </c>
       <c r="D19" s="7">
-        <v>5825</v>
+        <v>5384</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>120</v>
+        <v>48</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>121</v>
@@ -2332,7 +2341,7 @@
         <v>17</v>
       </c>
       <c r="I19" s="7">
-        <v>9721</v>
+        <v>8848</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>123</v>
@@ -2347,16 +2356,16 @@
         <v>23</v>
       </c>
       <c r="N19" s="7">
-        <v>15546</v>
+        <v>14232</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>126</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>54</v>
+        <v>127</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2368,148 +2377,148 @@
         <v>11</v>
       </c>
       <c r="D20" s="7">
-        <v>12488</v>
+        <v>12078</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H20" s="7">
         <v>39</v>
       </c>
       <c r="I20" s="7">
-        <v>24430</v>
+        <v>22388</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M20" s="7">
         <v>50</v>
       </c>
       <c r="N20" s="7">
-        <v>36919</v>
+        <v>34467</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C21" s="7">
         <v>57</v>
       </c>
       <c r="D21" s="7">
-        <v>58828</v>
+        <v>55745</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="H21" s="7">
         <v>142</v>
       </c>
       <c r="I21" s="7">
-        <v>80695</v>
+        <v>75474</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M21" s="7">
         <v>199</v>
       </c>
       <c r="N21" s="7">
-        <v>139523</v>
+        <v>131220</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C22" s="7">
         <v>218</v>
       </c>
       <c r="D22" s="7">
-        <v>245099</v>
+        <v>239349</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H22" s="7">
         <v>398</v>
       </c>
       <c r="I22" s="7">
-        <v>311908</v>
+        <v>367290</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="M22" s="7">
         <v>616</v>
       </c>
       <c r="N22" s="7">
-        <v>557007</v>
+        <v>606639</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2521,51 +2530,51 @@
         <v>292</v>
       </c>
       <c r="D23" s="7">
-        <v>322240</v>
+        <v>312557</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H23" s="7">
         <v>596</v>
       </c>
       <c r="I23" s="7">
-        <v>426754</v>
+        <v>474001</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M23" s="7">
         <v>888</v>
       </c>
       <c r="N23" s="7">
-        <v>748994</v>
+        <v>786558</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2574,46 +2583,46 @@
         <v>14</v>
       </c>
       <c r="D24" s="7">
-        <v>10179</v>
+        <v>9136</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>100</v>
+        <v>159</v>
       </c>
       <c r="H24" s="7">
         <v>18</v>
       </c>
       <c r="I24" s="7">
-        <v>7556</v>
+        <v>6867</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="M24" s="7">
         <v>32</v>
       </c>
       <c r="N24" s="7">
-        <v>17734</v>
+        <v>16003</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>156</v>
+        <v>136</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2625,148 +2634,148 @@
         <v>28</v>
       </c>
       <c r="D25" s="7">
-        <v>18168</v>
+        <v>16504</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="H25" s="7">
         <v>43</v>
       </c>
       <c r="I25" s="7">
-        <v>18415</v>
+        <v>16709</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="M25" s="7">
         <v>71</v>
       </c>
       <c r="N25" s="7">
-        <v>36583</v>
+        <v>33214</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>170</v>
+        <v>103</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C26" s="7">
         <v>140</v>
       </c>
       <c r="D26" s="7">
-        <v>93248</v>
+        <v>84987</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="H26" s="7">
         <v>260</v>
       </c>
       <c r="I26" s="7">
-        <v>118516</v>
+        <v>107093</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="M26" s="7">
         <v>400</v>
       </c>
       <c r="N26" s="7">
-        <v>211764</v>
+        <v>192080</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C27" s="7">
         <v>97</v>
       </c>
       <c r="D27" s="7">
-        <v>75153</v>
+        <v>68115</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H27" s="7">
         <v>170</v>
       </c>
       <c r="I27" s="7">
-        <v>87009</v>
+        <v>77605</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="M27" s="7">
         <v>267</v>
       </c>
       <c r="N27" s="7">
-        <v>162162</v>
+        <v>145720</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2778,51 +2787,51 @@
         <v>279</v>
       </c>
       <c r="D28" s="7">
-        <v>196748</v>
+        <v>178742</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H28" s="7">
         <v>491</v>
       </c>
       <c r="I28" s="7">
-        <v>231496</v>
+        <v>208274</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M28" s="7">
         <v>770</v>
       </c>
       <c r="N28" s="7">
-        <v>428244</v>
+        <v>387016</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -2831,46 +2840,46 @@
         <v>35</v>
       </c>
       <c r="D29" s="7">
-        <v>19546</v>
+        <v>18716</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>134</v>
+        <v>192</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="H29" s="7">
         <v>32</v>
       </c>
       <c r="I29" s="7">
-        <v>12014</v>
+        <v>11252</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>191</v>
+        <v>135</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="M29" s="7">
         <v>67</v>
       </c>
       <c r="N29" s="7">
-        <v>31560</v>
+        <v>29968</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>136</v>
+        <v>198</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2882,73 +2891,73 @@
         <v>36</v>
       </c>
       <c r="D30" s="7">
-        <v>22999</v>
+        <v>22199</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="F30" s="7" t="s">
-        <v>197</v>
-      </c>
       <c r="G30" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="H30" s="7">
         <v>58</v>
       </c>
       <c r="I30" s="7">
-        <v>24966</v>
+        <v>23258</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="M30" s="7">
         <v>94</v>
       </c>
       <c r="N30" s="7">
-        <v>47964</v>
+        <v>45458</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C31" s="7">
         <v>47</v>
       </c>
       <c r="D31" s="7">
-        <v>34249</v>
+        <v>33004</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>206</v>
+        <v>159</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>207</v>
+        <v>141</v>
       </c>
       <c r="H31" s="7">
         <v>65</v>
       </c>
       <c r="I31" s="7">
-        <v>33607</v>
+        <v>31202</v>
       </c>
       <c r="J31" s="7" t="s">
         <v>208</v>
@@ -2963,7 +2972,7 @@
         <v>112</v>
       </c>
       <c r="N31" s="7">
-        <v>67857</v>
+        <v>64206</v>
       </c>
       <c r="O31" s="7" t="s">
         <v>211</v>
@@ -2978,13 +2987,13 @@
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C32" s="7">
         <v>253</v>
       </c>
       <c r="D32" s="7">
-        <v>200429</v>
+        <v>195716</v>
       </c>
       <c r="E32" s="7" t="s">
         <v>214</v>
@@ -2999,7 +3008,7 @@
         <v>305</v>
       </c>
       <c r="I32" s="7">
-        <v>205035</v>
+        <v>191344</v>
       </c>
       <c r="J32" s="7" t="s">
         <v>217</v>
@@ -3014,7 +3023,7 @@
         <v>558</v>
       </c>
       <c r="N32" s="7">
-        <v>405464</v>
+        <v>387060</v>
       </c>
       <c r="O32" s="7" t="s">
         <v>220</v>
@@ -3035,46 +3044,46 @@
         <v>371</v>
       </c>
       <c r="D33" s="7">
-        <v>277223</v>
+        <v>269636</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H33" s="7">
         <v>460</v>
       </c>
       <c r="I33" s="7">
-        <v>275622</v>
+        <v>257056</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M33" s="7">
         <v>831</v>
       </c>
       <c r="N33" s="7">
-        <v>552845</v>
+        <v>526692</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -3088,7 +3097,7 @@
         <v>25</v>
       </c>
       <c r="D34" s="7">
-        <v>23060</v>
+        <v>22183</v>
       </c>
       <c r="E34" s="7" t="s">
         <v>224</v>
@@ -3103,7 +3112,7 @@
         <v>44</v>
       </c>
       <c r="I34" s="7">
-        <v>27578</v>
+        <v>25234</v>
       </c>
       <c r="J34" s="7" t="s">
         <v>227</v>
@@ -3118,7 +3127,7 @@
         <v>69</v>
       </c>
       <c r="N34" s="7">
-        <v>50638</v>
+        <v>47417</v>
       </c>
       <c r="O34" s="7" t="s">
         <v>230</v>
@@ -3139,148 +3148,148 @@
         <v>31</v>
       </c>
       <c r="D35" s="7">
-        <v>28462</v>
+        <v>27646</v>
       </c>
       <c r="E35" s="7" t="s">
         <v>233</v>
       </c>
       <c r="F35" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="G35" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>235</v>
       </c>
       <c r="H35" s="7">
         <v>50</v>
       </c>
       <c r="I35" s="7">
-        <v>39350</v>
+        <v>35951</v>
       </c>
       <c r="J35" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="K35" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="K35" s="7" t="s">
+      <c r="L35" s="7" t="s">
         <v>237</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="M35" s="7">
         <v>81</v>
       </c>
       <c r="N35" s="7">
-        <v>67812</v>
+        <v>63597</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>229</v>
+        <v>238</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C36" s="7">
         <v>168</v>
       </c>
       <c r="D36" s="7">
-        <v>173281</v>
+        <v>174683</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="H36" s="7">
         <v>307</v>
       </c>
       <c r="I36" s="7">
-        <v>217000</v>
+        <v>201817</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="M36" s="7">
         <v>475</v>
       </c>
       <c r="N36" s="7">
-        <v>390282</v>
+        <v>376500</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C37" s="7">
         <v>375</v>
       </c>
       <c r="D37" s="7">
-        <v>402951</v>
+        <v>399767</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>42</v>
+        <v>250</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="H37" s="7">
         <v>555</v>
       </c>
       <c r="I37" s="7">
-        <v>517452</v>
+        <v>583630</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="M37" s="7">
         <v>930</v>
       </c>
       <c r="N37" s="7">
-        <v>920404</v>
+        <v>983397</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>149</v>
+        <v>258</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3292,51 +3301,51 @@
         <v>599</v>
       </c>
       <c r="D38" s="7">
-        <v>627754</v>
+        <v>624279</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H38" s="7">
         <v>956</v>
       </c>
       <c r="I38" s="7">
-        <v>801381</v>
+        <v>846632</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M38" s="7">
         <v>1555</v>
       </c>
       <c r="N38" s="7">
-        <v>1429136</v>
+        <v>1470911</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>10</v>
@@ -3345,46 +3354,46 @@
         <v>61</v>
       </c>
       <c r="D39" s="7">
-        <v>107457</v>
+        <v>291941</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="H39" s="7">
         <v>93</v>
       </c>
       <c r="I39" s="7">
-        <v>67901</v>
+        <v>56855</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="M39" s="7">
         <v>154</v>
       </c>
       <c r="N39" s="7">
-        <v>175357</v>
+        <v>348796</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -3396,148 +3405,148 @@
         <v>129</v>
       </c>
       <c r="D40" s="7">
-        <v>124273</v>
+        <v>106434</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="H40" s="7">
         <v>215</v>
       </c>
       <c r="I40" s="7">
-        <v>154585</v>
+        <v>129633</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="M40" s="7">
         <v>344</v>
       </c>
       <c r="N40" s="7">
-        <v>278858</v>
+        <v>236067</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
       <c r="B41" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C41" s="7">
         <v>384</v>
       </c>
       <c r="D41" s="7">
-        <v>400449</v>
+        <v>339634</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="H41" s="7">
         <v>542</v>
       </c>
       <c r="I41" s="7">
-        <v>459795</v>
+        <v>378185</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="M41" s="7">
         <v>926</v>
       </c>
       <c r="N41" s="7">
-        <v>860245</v>
+        <v>717819</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C42" s="7">
         <v>187</v>
       </c>
       <c r="D42" s="7">
-        <v>226076</v>
+        <v>189685</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>285</v>
+        <v>28</v>
       </c>
       <c r="H42" s="7">
         <v>212</v>
       </c>
       <c r="I42" s="7">
-        <v>186153</v>
+        <v>153059</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="M42" s="7">
         <v>399</v>
       </c>
       <c r="N42" s="7">
-        <v>412229</v>
+        <v>342744</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3549,46 +3558,46 @@
         <v>761</v>
       </c>
       <c r="D43" s="7">
-        <v>858255</v>
+        <v>927695</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H43" s="7">
         <v>1062</v>
       </c>
       <c r="I43" s="7">
-        <v>868434</v>
+        <v>717731</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M43" s="7">
         <v>1823</v>
       </c>
       <c r="N43" s="7">
-        <v>1726690</v>
+        <v>1645426</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -3602,46 +3611,46 @@
         <v>167</v>
       </c>
       <c r="D44" s="7">
-        <v>189715</v>
+        <v>370173</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="H44" s="7">
         <v>253</v>
       </c>
       <c r="I44" s="7">
-        <v>156237</v>
+        <v>138186</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>230</v>
+        <v>299</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>229</v>
+        <v>300</v>
       </c>
       <c r="M44" s="7">
         <v>420</v>
       </c>
       <c r="N44" s="7">
-        <v>345952</v>
+        <v>508360</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3653,148 +3662,148 @@
         <v>293</v>
       </c>
       <c r="D45" s="7">
-        <v>262137</v>
+        <v>239160</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="H45" s="7">
         <v>530</v>
       </c>
       <c r="I45" s="7">
-        <v>341382</v>
+        <v>302304</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>304</v>
+        <v>95</v>
       </c>
       <c r="M45" s="7">
         <v>823</v>
       </c>
       <c r="N45" s="7">
-        <v>603519</v>
+        <v>541464</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>299</v>
+        <v>309</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="1"/>
       <c r="B46" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C46" s="7">
         <v>1095</v>
       </c>
       <c r="D46" s="7">
-        <v>1085544</v>
+        <v>1034644</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>309</v>
+        <v>30</v>
       </c>
       <c r="H46" s="7">
         <v>1862</v>
       </c>
       <c r="I46" s="7">
-        <v>1261589</v>
+        <v>1131713</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="M46" s="7">
         <v>2957</v>
       </c>
       <c r="N46" s="7">
-        <v>2347134</v>
+        <v>2166357</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
       <c r="B47" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C47" s="7">
         <v>1819</v>
       </c>
       <c r="D47" s="7">
-        <v>1845698</v>
+        <v>1813946</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="H47" s="7">
         <v>2710</v>
       </c>
       <c r="I47" s="7">
-        <v>2042280</v>
+        <v>2084130</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="M47" s="7">
         <v>4529</v>
       </c>
       <c r="N47" s="7">
-        <v>3887979</v>
+        <v>3898076</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -3806,51 +3815,51 @@
         <v>3374</v>
       </c>
       <c r="D48" s="7">
-        <v>3383094</v>
+        <v>3457924</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H48" s="7">
         <v>5355</v>
       </c>
       <c r="I48" s="7">
-        <v>3801489</v>
+        <v>3656333</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M48" s="7">
         <v>8729</v>
       </c>
       <c r="N48" s="7">
-        <v>7184584</v>
+        <v>7114257</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
     </row>
   </sheetData>
